--- a/Code/Results/Cases/Case_5_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.784361292971965</v>
+        <v>2.449533307047091</v>
       </c>
       <c r="C2">
-        <v>0.6021086535403981</v>
+        <v>0.3583132315388866</v>
       </c>
       <c r="D2">
-        <v>0.02576613535894623</v>
+        <v>0.03754123805071297</v>
       </c>
       <c r="E2">
-        <v>0.0332291856661211</v>
+        <v>0.0309301771663435</v>
       </c>
       <c r="F2">
-        <v>2.604092036381374</v>
+        <v>1.46245888234148</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,39 +442,45 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.519918936453863</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04282802770189775</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5474712670817041</v>
+        <v>0.5794228874090237</v>
       </c>
       <c r="L2">
-        <v>0.1289400567936347</v>
+        <v>0.1488021820614449</v>
       </c>
       <c r="M2">
-        <v>0.5034650615680434</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4146845520295699</v>
+      </c>
+      <c r="N2">
+        <v>1.103520285359551</v>
+      </c>
+      <c r="O2">
+        <v>1.145495214691778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.538513040765338</v>
+        <v>2.13212675085947</v>
       </c>
       <c r="C3">
-        <v>0.5179220360839736</v>
+        <v>0.3154275919563361</v>
       </c>
       <c r="D3">
-        <v>0.02562009056127934</v>
+        <v>0.03931487813297929</v>
       </c>
       <c r="E3">
-        <v>0.03066802737176566</v>
+        <v>0.03133597576061753</v>
       </c>
       <c r="F3">
-        <v>2.352412181238165</v>
+        <v>1.346537088037834</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,39 +489,45 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.397192631787306</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04027810897351358</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4716967747460785</v>
+        <v>0.5014001745613754</v>
       </c>
       <c r="L3">
-        <v>0.1127144823749759</v>
+        <v>0.1348752057078642</v>
       </c>
       <c r="M3">
-        <v>0.4354150992116033</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3632548910029954</v>
+      </c>
+      <c r="N3">
+        <v>1.151173989207557</v>
+      </c>
+      <c r="O3">
+        <v>1.065936627335361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.389805275980535</v>
+        <v>1.939817259053768</v>
       </c>
       <c r="C4">
-        <v>0.4671044778136206</v>
+        <v>0.2892522763116858</v>
       </c>
       <c r="D4">
-        <v>0.02555707858195078</v>
+        <v>0.04042858513264624</v>
       </c>
       <c r="E4">
-        <v>0.0291471270908783</v>
+        <v>0.03160236126170868</v>
       </c>
       <c r="F4">
-        <v>2.202529184983106</v>
+        <v>1.278212034423532</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,39 +536,45 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.324441795975659</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03877868613462887</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4258894912134608</v>
+        <v>0.4540371196968138</v>
       </c>
       <c r="L4">
-        <v>0.1029685584928082</v>
+        <v>0.1265292717729523</v>
       </c>
       <c r="M4">
-        <v>0.3943640208178536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3321528825817595</v>
+      </c>
+      <c r="N4">
+        <v>1.182079103563346</v>
+      </c>
+      <c r="O4">
+        <v>1.019388996004899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.329688353871859</v>
+        <v>1.862019812194717</v>
       </c>
       <c r="C5">
-        <v>0.4465825632178166</v>
+        <v>0.2786149939814777</v>
       </c>
       <c r="D5">
-        <v>0.02553735437388482</v>
+        <v>0.0408885360906881</v>
       </c>
       <c r="E5">
-        <v>0.02853921865172637</v>
+        <v>0.0317151798083235</v>
       </c>
       <c r="F5">
-        <v>2.142497100389775</v>
+        <v>1.251028469594914</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,39 +583,45 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.295384535345917</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03818283621160568</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4073768937849138</v>
+        <v>0.4348539787204331</v>
       </c>
       <c r="L5">
-        <v>0.09904504702523909</v>
+        <v>0.123175656921596</v>
       </c>
       <c r="M5">
-        <v>0.3777951574700253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.319585081402721</v>
+      </c>
+      <c r="N5">
+        <v>1.1950712348143</v>
+      </c>
+      <c r="O5">
+        <v>1.000954588698669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.319732885704781</v>
+        <v>1.849133858666562</v>
       </c>
       <c r="C6">
-        <v>0.4431852789197421</v>
+        <v>0.2768501764791438</v>
       </c>
       <c r="D6">
-        <v>0.0255344181914694</v>
+        <v>0.04096527677988426</v>
       </c>
       <c r="E6">
-        <v>0.02843896182119643</v>
+        <v>0.03173416895375492</v>
       </c>
       <c r="F6">
-        <v>2.132588624769127</v>
+        <v>1.24655288102781</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,39 +630,45 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.290593379684182</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03808477145050659</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4043114768594052</v>
+        <v>0.4316752135344331</v>
       </c>
       <c r="L6">
-        <v>0.0983962736541848</v>
+        <v>0.1226215384537426</v>
       </c>
       <c r="M6">
-        <v>0.3750528907633424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3175042732590967</v>
+      </c>
+      <c r="N6">
+        <v>1.197252170371129</v>
+      </c>
+      <c r="O6">
+        <v>0.9979245832512902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.38899266646763</v>
+        <v>1.938765846236834</v>
       </c>
       <c r="C7">
-        <v>0.4668269978271837</v>
+        <v>0.289108711982621</v>
       </c>
       <c r="D7">
-        <v>0.02555678940745665</v>
+        <v>0.04043476358843678</v>
       </c>
       <c r="E7">
-        <v>0.02913888197625347</v>
+        <v>0.031603865589932</v>
       </c>
       <c r="F7">
-        <v>2.201715489092734</v>
+        <v>1.277842830451178</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,39 +677,45 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.324047616137648</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03877059071104938</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.425639232628356</v>
+        <v>0.4537779566487572</v>
       </c>
       <c r="L7">
-        <v>0.1029154582950795</v>
+        <v>0.1264838570879547</v>
       </c>
       <c r="M7">
-        <v>0.3941399509324057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3319829742755687</v>
+      </c>
+      <c r="N7">
+        <v>1.182252728289669</v>
+      </c>
+      <c r="O7">
+        <v>1.01913827720405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.699075630655329</v>
+        <v>2.339507149761914</v>
       </c>
       <c r="C8">
-        <v>0.5728790506767325</v>
+        <v>0.3434874750560653</v>
       </c>
       <c r="D8">
-        <v>0.02570977086808313</v>
+        <v>0.03814759985166338</v>
       </c>
       <c r="E8">
-        <v>0.03233467261813772</v>
+        <v>0.03106647981123367</v>
       </c>
       <c r="F8">
-        <v>2.516270664872621</v>
+        <v>1.421861292022527</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,39 +724,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.477021409133982</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04193413885863428</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5211784116860301</v>
+        <v>0.552396086286933</v>
       </c>
       <c r="L8">
-        <v>0.1232964568615067</v>
+        <v>0.1439549309184258</v>
       </c>
       <c r="M8">
-        <v>0.4798342560993802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3968445708679909</v>
+      </c>
+      <c r="N8">
+        <v>1.119599925211965</v>
+      </c>
+      <c r="O8">
+        <v>1.11755781732009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.329062424932715</v>
+        <v>3.149699655292864</v>
       </c>
       <c r="C9">
-        <v>0.7894385246800937</v>
+        <v>0.4518644315113249</v>
       </c>
       <c r="D9">
-        <v>0.02625940213623679</v>
+        <v>0.0338637727873432</v>
       </c>
       <c r="E9">
-        <v>0.03906739523724312</v>
+        <v>0.03015265480197193</v>
       </c>
       <c r="F9">
-        <v>3.176144709204664</v>
+        <v>1.729735101540328</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,39 +771,45 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.800931020320036</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04873724565722348</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7155642371782847</v>
+        <v>0.7510311653015265</v>
       </c>
       <c r="L9">
-        <v>0.165305916594523</v>
+        <v>0.1800511898379398</v>
       </c>
       <c r="M9">
-        <v>0.6549070846994312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5284654729508915</v>
+      </c>
+      <c r="N9">
+        <v>1.010563064893539</v>
+      </c>
+      <c r="O9">
+        <v>1.331015899620297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.811745039179868</v>
+        <v>3.765737946683942</v>
       </c>
       <c r="C10">
-        <v>0.9564053794797189</v>
+        <v>0.5333189900957791</v>
       </c>
       <c r="D10">
-        <v>0.02687623920709825</v>
+        <v>0.03084836598935947</v>
       </c>
       <c r="E10">
-        <v>0.04438498424832105</v>
+        <v>0.02957180192177367</v>
       </c>
       <c r="F10">
-        <v>3.696804758121004</v>
+        <v>1.975776908856588</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,39 +818,45 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.058610572763953</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05421620274805683</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8647667597175825</v>
+        <v>0.9016044110011592</v>
       </c>
       <c r="L10">
-        <v>0.1979227825465841</v>
+        <v>0.2080062555412781</v>
       </c>
       <c r="M10">
-        <v>0.7897339123246994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6288650376872198</v>
+      </c>
+      <c r="N10">
+        <v>0.9400516052934265</v>
+      </c>
+      <c r="O10">
+        <v>1.503675119448445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.037316599825374</v>
+        <v>4.051990969686926</v>
       </c>
       <c r="C11">
-        <v>1.034754253223298</v>
+        <v>0.5709659793884043</v>
       </c>
       <c r="D11">
-        <v>0.02721935885534421</v>
+        <v>0.0295079094220192</v>
       </c>
       <c r="E11">
-        <v>0.04690701047355716</v>
+        <v>0.02932856653404992</v>
       </c>
       <c r="F11">
-        <v>3.943938392371564</v>
+        <v>2.093099059744532</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,39 +865,45 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.181436136617805</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05684283468053763</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9345757230050395</v>
+        <v>0.9714707072355679</v>
       </c>
       <c r="L11">
-        <v>0.2132729154244615</v>
+        <v>0.2211139748892776</v>
       </c>
       <c r="M11">
-        <v>0.8529137151157755</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.6755915126096284</v>
+      </c>
+      <c r="N11">
+        <v>0.9103519600892653</v>
+      </c>
+      <c r="O11">
+        <v>1.586500497513001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.123759497026242</v>
+        <v>4.161390619459723</v>
       </c>
       <c r="C12">
-        <v>1.064833870381364</v>
+        <v>0.5853253433647865</v>
       </c>
       <c r="D12">
-        <v>0.02735990095560226</v>
+        <v>0.02900509927515094</v>
       </c>
       <c r="E12">
-        <v>0.04787899222241876</v>
+        <v>0.02923961134803221</v>
       </c>
       <c r="F12">
-        <v>4.039240457718364</v>
+        <v>2.138403068375609</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,39 +912,45 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.228880831577385</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05785964020966539</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9613418303491414</v>
+        <v>0.9981577442636507</v>
       </c>
       <c r="L12">
-        <v>0.2191719944705355</v>
+        <v>0.2261410139953028</v>
       </c>
       <c r="M12">
-        <v>0.8771518012994335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.6934603596425646</v>
+      </c>
+      <c r="N12">
+        <v>0.8994751042046616</v>
+      </c>
+      <c r="O12">
+        <v>1.618558757980367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.105094122716196</v>
+        <v>4.137782548951861</v>
       </c>
       <c r="C13">
-        <v>1.058336268298945</v>
+        <v>0.5822278956127036</v>
       </c>
       <c r="D13">
-        <v>0.02732913220898325</v>
+        <v>0.02911317002014924</v>
       </c>
       <c r="E13">
-        <v>0.047668868010458</v>
+        <v>0.02925862690092318</v>
       </c>
       <c r="F13">
-        <v>4.018634883616755</v>
+        <v>2.128605329748254</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,39 +959,45 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.218619044674668</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05763961788516703</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.955561633589781</v>
+        <v>0.9923994077114457</v>
       </c>
       <c r="L13">
-        <v>0.21789746382359</v>
+        <v>0.2250554068309043</v>
       </c>
       <c r="M13">
-        <v>0.8719169315879824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.6896038288232731</v>
+      </c>
+      <c r="N13">
+        <v>0.9018007048908032</v>
+      </c>
+      <c r="O13">
+        <v>1.611622228158922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.044406784322291</v>
+        <v>4.060970428554072</v>
       </c>
       <c r="C14">
-        <v>1.037220279207645</v>
+        <v>0.5721451527670922</v>
       </c>
       <c r="D14">
-        <v>0.02723069848784121</v>
+        <v>0.02946644500487983</v>
       </c>
       <c r="E14">
-        <v>0.04698662319861313</v>
+        <v>0.02932118412290174</v>
       </c>
       <c r="F14">
-        <v>3.951743033135898</v>
+        <v>2.096808062789151</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,39 +1006,45 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.185319944305732</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05692602609254749</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9367708261776926</v>
+        <v>0.9736614493163671</v>
       </c>
       <c r="L14">
-        <v>0.2137564278774136</v>
+        <v>0.2215262370698099</v>
       </c>
       <c r="M14">
-        <v>0.8549012216306622</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.6770579550133178</v>
+      </c>
+      <c r="N14">
+        <v>0.9094495324770264</v>
+      </c>
+      <c r="O14">
+        <v>1.589123559872291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.007372546938768</v>
+        <v>4.014055575116402</v>
       </c>
       <c r="C15">
-        <v>1.024341724915928</v>
+        <v>0.5659831995693025</v>
       </c>
       <c r="D15">
-        <v>0.02717183923893174</v>
+        <v>0.02968346986699144</v>
       </c>
       <c r="E15">
-        <v>0.04657100324651964</v>
+        <v>0.02935991707610563</v>
       </c>
       <c r="F15">
-        <v>3.911001226588411</v>
+        <v>2.077448658193362</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,39 +1053,45 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.165048900748246</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0564919073031227</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9253057015956045</v>
+        <v>0.9622149335056633</v>
       </c>
       <c r="L15">
-        <v>0.2112315684664026</v>
+        <v>0.2193730066428969</v>
       </c>
       <c r="M15">
-        <v>0.8445209338977548</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.6693966990309974</v>
+      </c>
+      <c r="N15">
+        <v>0.9141836982406133</v>
+      </c>
+      <c r="O15">
+        <v>1.575435338227066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.797137387630585</v>
+        <v>3.747163040714213</v>
       </c>
       <c r="C16">
-        <v>0.9513387379053313</v>
+        <v>0.5308720948611949</v>
       </c>
       <c r="D16">
-        <v>0.02685520631735372</v>
+        <v>0.03093662117836971</v>
       </c>
       <c r="E16">
-        <v>0.04422241300171947</v>
+        <v>0.02958813145102646</v>
       </c>
       <c r="F16">
-        <v>3.680880637010944</v>
+        <v>1.968226582036877</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,39 +1100,45 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.050706926151705</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05404748272410309</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8602478679510597</v>
+        <v>0.8970688060074963</v>
       </c>
       <c r="L16">
-        <v>0.1969309690767815</v>
+        <v>0.2071581008292895</v>
       </c>
       <c r="M16">
-        <v>0.7856460542936361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6258344731382763</v>
+      </c>
+      <c r="N16">
+        <v>0.9420426930262309</v>
+      </c>
+      <c r="O16">
+        <v>1.49835495569755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.669809018871092</v>
+        <v>3.585066464725003</v>
       </c>
       <c r="C17">
-        <v>0.9072114161721174</v>
+        <v>0.5094966114521355</v>
       </c>
       <c r="D17">
-        <v>0.02667804970835519</v>
+        <v>0.03171359065542134</v>
       </c>
       <c r="E17">
-        <v>0.04280944866959935</v>
+        <v>0.02973360100326516</v>
       </c>
       <c r="F17">
-        <v>3.542503154703013</v>
+        <v>1.902672842450954</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,39 +1147,45 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.982082898939211</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0525842019884486</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8208680391165899</v>
+        <v>0.8574771281474369</v>
       </c>
       <c r="L17">
-        <v>0.1882977466752038</v>
+        <v>0.1997696651712602</v>
       </c>
       <c r="M17">
-        <v>0.7500331264182734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.5993960486822374</v>
+      </c>
+      <c r="N17">
+        <v>0.9597609340594317</v>
+      </c>
+      <c r="O17">
+        <v>1.452218473385329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.597126684769705</v>
+        <v>3.492389858714205</v>
       </c>
       <c r="C18">
-        <v>0.8820514879936354</v>
+        <v>0.4972566139979335</v>
       </c>
       <c r="D18">
-        <v>0.02658192764845779</v>
+        <v>0.03216340526542449</v>
       </c>
       <c r="E18">
-        <v>0.04200630400042549</v>
+        <v>0.02981923866927572</v>
       </c>
       <c r="F18">
-        <v>3.463863867946714</v>
+        <v>1.865469382723404</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,39 +1194,45 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.943131275158763</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05175500409444922</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7983964849980225</v>
+        <v>0.8348317829973979</v>
       </c>
       <c r="L18">
-        <v>0.1833795420914726</v>
+        <v>0.195556343569578</v>
       </c>
       <c r="M18">
-        <v>0.7297200917441344</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.5842870835836464</v>
+      </c>
+      <c r="N18">
+        <v>0.9701738236740312</v>
+      </c>
+      <c r="O18">
+        <v>1.426079852572187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.572608202386903</v>
+        <v>3.461102886205936</v>
       </c>
       <c r="C19">
-        <v>0.8735688452738657</v>
+        <v>0.4931212252685953</v>
       </c>
       <c r="D19">
-        <v>0.02655032868356955</v>
+        <v>0.03231619854286549</v>
       </c>
       <c r="E19">
-        <v>0.04173595355811877</v>
+        <v>0.02984856823737303</v>
       </c>
       <c r="F19">
-        <v>3.437394648184295</v>
+        <v>1.852956137877499</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,39 +1241,45 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.930028476762232</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05147630795978131</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7908172049143971</v>
+        <v>0.8271852713100429</v>
       </c>
       <c r="L19">
-        <v>0.1817221056616916</v>
+        <v>0.194135813353995</v>
       </c>
       <c r="M19">
-        <v>0.722870392403145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5791875701963747</v>
+      </c>
+      <c r="N19">
+        <v>0.973736742771905</v>
+      </c>
+      <c r="O19">
+        <v>1.417295845513564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.683304947736644</v>
+        <v>3.602263322277508</v>
       </c>
       <c r="C20">
-        <v>0.9118855280282787</v>
+        <v>0.5117662916737515</v>
       </c>
       <c r="D20">
-        <v>0.02669629983694222</v>
+        <v>0.03163057651154322</v>
       </c>
       <c r="E20">
-        <v>0.04295885765819563</v>
+        <v>0.02971791098974297</v>
       </c>
       <c r="F20">
-        <v>3.557133536612298</v>
+        <v>1.909598570466414</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.98933345118364</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05273866348053247</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8250412382219849</v>
+        <v>0.8616783833649464</v>
       </c>
       <c r="L20">
-        <v>0.1892117765650738</v>
+        <v>0.2005523686684541</v>
       </c>
       <c r="M20">
-        <v>0.7538062035560813</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6022001921418507</v>
+      </c>
+      <c r="N20">
+        <v>0.9578516455047392</v>
+      </c>
+      <c r="O20">
+        <v>1.457088062365742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.062202940847328</v>
+        <v>4.083503654783215</v>
       </c>
       <c r="C21">
-        <v>1.043410838501472</v>
+        <v>0.5751037423269452</v>
       </c>
       <c r="D21">
-        <v>0.02725930869594606</v>
+        <v>0.02936254690145512</v>
       </c>
       <c r="E21">
-        <v>0.04718653679298512</v>
+        <v>0.02930272283246627</v>
       </c>
       <c r="F21">
-        <v>3.971342096779182</v>
+        <v>2.106123042152731</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,39 +1335,45 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.195074266753892</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05713499929006893</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9422807036886951</v>
+        <v>0.9791587119015333</v>
       </c>
       <c r="L21">
-        <v>0.2149702987821058</v>
+        <v>0.2225610569095124</v>
       </c>
       <c r="M21">
-        <v>0.8598902327097093</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6807380499957745</v>
+      </c>
+      <c r="N21">
+        <v>0.9071926124423086</v>
+      </c>
+      <c r="O21">
+        <v>1.595712459571459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.315894355242563</v>
+        <v>4.403936182121754</v>
       </c>
       <c r="C22">
-        <v>1.131801428109782</v>
+        <v>0.6171102455483037</v>
       </c>
       <c r="D22">
-        <v>0.02769006098052529</v>
+        <v>0.02790836713912848</v>
       </c>
       <c r="E22">
-        <v>0.05004953690238167</v>
+        <v>0.02904982559774583</v>
       </c>
       <c r="F22">
-        <v>4.252200564910055</v>
+        <v>2.239727837748319</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,39 +1382,45 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.33505008232666</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06013902315681818</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.020862584048871</v>
+        <v>1.057298730624211</v>
       </c>
       <c r="L22">
-        <v>0.2323152615844251</v>
+        <v>0.2373186458983554</v>
       </c>
       <c r="M22">
-        <v>0.9310753809103147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7330969504700064</v>
+      </c>
+      <c r="N22">
+        <v>0.8762545551801892</v>
+      </c>
+      <c r="O22">
+        <v>1.690399960432501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.179880576835558</v>
+        <v>4.232324922835744</v>
       </c>
       <c r="C23">
-        <v>1.084378805623601</v>
+        <v>0.5946280980099061</v>
       </c>
       <c r="D23">
-        <v>0.02745380896176641</v>
+        <v>0.0286818056120719</v>
       </c>
       <c r="E23">
-        <v>0.04851157409990137</v>
+        <v>0.02918306431808526</v>
       </c>
       <c r="F23">
-        <v>4.101284525796558</v>
+        <v>2.167911689705178</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,39 +1429,45 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.259791242924706</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05852270661650749</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9787233309492791</v>
+        <v>1.01545755861018</v>
       </c>
       <c r="L23">
-        <v>0.2230066038638086</v>
+        <v>0.2294054634701865</v>
       </c>
       <c r="M23">
-        <v>0.8928954067718209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7050495437437263</v>
+      </c>
+      <c r="N23">
+        <v>0.8925580761902978</v>
+      </c>
+      <c r="O23">
+        <v>1.63946117483593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.677201829149226</v>
+        <v>3.594487029429615</v>
       </c>
       <c r="C24">
-        <v>0.9097717145255899</v>
+        <v>0.5107400177923012</v>
       </c>
       <c r="D24">
-        <v>0.02668803123281904</v>
+        <v>0.03166809749564869</v>
       </c>
       <c r="E24">
-        <v>0.04289128139517473</v>
+        <v>0.02972499820867025</v>
       </c>
       <c r="F24">
-        <v>3.550516306187262</v>
+        <v>1.906465947945662</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,39 +1476,45 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.986053924641936</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05266879408119785</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8231540141480735</v>
+        <v>0.8597786356682207</v>
       </c>
       <c r="L24">
-        <v>0.188798403950031</v>
+        <v>0.200198401842016</v>
       </c>
       <c r="M24">
-        <v>0.7520998964536361</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6009321576498365</v>
+      </c>
+      <c r="N24">
+        <v>0.9587141316417842</v>
+      </c>
+      <c r="O24">
+        <v>1.454885325144801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.155666076693763</v>
+        <v>2.927334569583195</v>
       </c>
       <c r="C25">
-        <v>0.7296820041917442</v>
+        <v>0.4222844856750214</v>
       </c>
       <c r="D25">
-        <v>0.02607820572308839</v>
+        <v>0.03500027568904285</v>
       </c>
       <c r="E25">
-        <v>0.03718773605190329</v>
+        <v>0.03038438369766361</v>
       </c>
       <c r="F25">
-        <v>2.992098362484711</v>
+        <v>1.643299694275029</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,19 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.710250427205324</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04682153910006726</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6620230206276432</v>
+        <v>0.6965932944242752</v>
       </c>
       <c r="L25">
-        <v>0.1536737502644883</v>
+        <v>0.1700587818644266</v>
       </c>
       <c r="M25">
-        <v>0.6066085917412281</v>
+        <v>0.492287050186377</v>
+      </c>
+      <c r="N25">
+        <v>1.038466573472633</v>
+      </c>
+      <c r="O25">
+        <v>1.270752080431876</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.449533307047091</v>
+        <v>0.790164202956646</v>
       </c>
       <c r="C2">
-        <v>0.3583132315388866</v>
+        <v>0.092732283168246</v>
       </c>
       <c r="D2">
-        <v>0.03754123805071297</v>
+        <v>0.4008654923835167</v>
       </c>
       <c r="E2">
-        <v>0.0309301771663435</v>
+        <v>0.331781951377927</v>
       </c>
       <c r="F2">
-        <v>1.46245888234148</v>
+        <v>6.7065684244252</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5794228874090237</v>
+        <v>0.7882347474319431</v>
       </c>
       <c r="L2">
-        <v>0.1488021820614449</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4146845520295699</v>
+        <v>0.5666188979596214</v>
       </c>
       <c r="N2">
-        <v>1.103520285359551</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.145495214691778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.13212675085947</v>
+        <v>0.6791560981322675</v>
       </c>
       <c r="C3">
-        <v>0.3154275919563361</v>
+        <v>0.0787217242701459</v>
       </c>
       <c r="D3">
-        <v>0.03931487813297929</v>
+        <v>0.3619561799473274</v>
       </c>
       <c r="E3">
-        <v>0.03133597576061753</v>
+        <v>0.2866611255121683</v>
       </c>
       <c r="F3">
-        <v>1.346537088037834</v>
+        <v>5.957097198321804</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5014001745613754</v>
+        <v>0.6742551340740874</v>
       </c>
       <c r="L3">
-        <v>0.1348752057078642</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3632548910029954</v>
+        <v>0.4874593897444868</v>
       </c>
       <c r="N3">
-        <v>1.151173989207557</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.065936627335361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.939817259053768</v>
+        <v>0.6127906166310595</v>
       </c>
       <c r="C4">
-        <v>0.2892522763116858</v>
+        <v>0.07039593696360669</v>
       </c>
       <c r="D4">
-        <v>0.04042858513264624</v>
+        <v>0.3383894155944773</v>
       </c>
       <c r="E4">
-        <v>0.03160236126170868</v>
+        <v>0.2595439729616444</v>
       </c>
       <c r="F4">
-        <v>1.278212034423532</v>
+        <v>5.504444855279132</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4540371196968138</v>
+        <v>0.6061989687195961</v>
       </c>
       <c r="L4">
-        <v>0.1265292717729523</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3321528825817595</v>
+        <v>0.4400166137278347</v>
       </c>
       <c r="N4">
-        <v>1.182079103563346</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.019388996004899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.862019812194717</v>
+        <v>0.5861401069223575</v>
       </c>
       <c r="C5">
-        <v>0.2786149939814777</v>
+        <v>0.06706200002214757</v>
       </c>
       <c r="D5">
-        <v>0.0408885360906881</v>
+        <v>0.3288509242330804</v>
       </c>
       <c r="E5">
-        <v>0.0317151798083235</v>
+        <v>0.2486201674446775</v>
       </c>
       <c r="F5">
-        <v>1.251028469594914</v>
+        <v>5.321590231673724</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4348539787204331</v>
+        <v>0.5788864016667077</v>
       </c>
       <c r="L5">
-        <v>0.123175656921596</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.319585081402721</v>
+        <v>0.4209355370157866</v>
       </c>
       <c r="N5">
-        <v>1.1950712348143</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.000954588698669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.849133858666562</v>
+        <v>0.5817370342768129</v>
       </c>
       <c r="C6">
-        <v>0.2768501764791438</v>
+        <v>0.06651166620447668</v>
       </c>
       <c r="D6">
-        <v>0.04096527677988426</v>
+        <v>0.32727055206648</v>
       </c>
       <c r="E6">
-        <v>0.03173416895375492</v>
+        <v>0.2468133504255405</v>
       </c>
       <c r="F6">
-        <v>1.24655288102781</v>
+        <v>5.291316365057952</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4316752135344331</v>
+        <v>0.5743748365708399</v>
       </c>
       <c r="L6">
-        <v>0.1226215384537426</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3175042732590967</v>
+        <v>0.4177812800105087</v>
       </c>
       <c r="N6">
-        <v>1.197252170371129</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9979245832512902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.938765846236834</v>
+        <v>0.6124296750571148</v>
       </c>
       <c r="C7">
-        <v>0.289108711982621</v>
+        <v>0.07035074925970264</v>
       </c>
       <c r="D7">
-        <v>0.04043476358843678</v>
+        <v>0.3382605327931145</v>
       </c>
       <c r="E7">
-        <v>0.031603865589932</v>
+        <v>0.259396164219055</v>
       </c>
       <c r="F7">
-        <v>1.277842830451178</v>
+        <v>5.501972677390171</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4537779566487572</v>
+        <v>0.605828997843588</v>
       </c>
       <c r="L7">
-        <v>0.1264838570879547</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3319829742755687</v>
+        <v>0.4397583082540635</v>
       </c>
       <c r="N7">
-        <v>1.182252728289669</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.01913827720405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.339507149761914</v>
+        <v>0.7514801275563627</v>
       </c>
       <c r="C8">
-        <v>0.3434874750560653</v>
+        <v>0.0878372109475265</v>
       </c>
       <c r="D8">
-        <v>0.03814759985166338</v>
+        <v>0.3873721312499043</v>
       </c>
       <c r="E8">
-        <v>0.03106647981123367</v>
+        <v>0.3160891193176312</v>
       </c>
       <c r="F8">
-        <v>1.421861292022527</v>
+        <v>6.44640715566095</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.552396086286933</v>
+        <v>0.7484940242617029</v>
       </c>
       <c r="L8">
-        <v>0.1439549309184258</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3968445708679909</v>
+        <v>0.5390584213333725</v>
       </c>
       <c r="N8">
-        <v>1.119599925211965</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.11755781732009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.149699655292864</v>
+        <v>1.041294161029896</v>
       </c>
       <c r="C9">
-        <v>0.4518644315113249</v>
+        <v>0.1248714718378352</v>
       </c>
       <c r="D9">
-        <v>0.0338637727873432</v>
+        <v>0.4870672509079839</v>
       </c>
       <c r="E9">
-        <v>0.03015265480197193</v>
+        <v>0.4329915596586886</v>
       </c>
       <c r="F9">
-        <v>1.729735101540328</v>
+        <v>8.372696682139576</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7510311653015265</v>
+        <v>1.046805806773079</v>
       </c>
       <c r="L9">
-        <v>0.1800511898379398</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5284654729508915</v>
+        <v>0.7450282999726099</v>
       </c>
       <c r="N9">
-        <v>1.010563064893539</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.331015899620297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.765737946683942</v>
+        <v>1.269295406992029</v>
       </c>
       <c r="C10">
-        <v>0.5333189900957791</v>
+        <v>0.1546340545225888</v>
       </c>
       <c r="D10">
-        <v>0.03084836598935947</v>
+        <v>0.5636729932377307</v>
       </c>
       <c r="E10">
-        <v>0.02957180192177367</v>
+        <v>0.524078329349976</v>
       </c>
       <c r="F10">
-        <v>1.975776908856588</v>
+        <v>9.856255499334878</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9016044110011592</v>
+        <v>1.282475077704277</v>
       </c>
       <c r="L10">
-        <v>0.2080062555412781</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6288650376872198</v>
+        <v>0.9064481671553608</v>
       </c>
       <c r="N10">
-        <v>0.9400516052934265</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.503675119448445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.051990969686926</v>
+        <v>1.377520631707824</v>
       </c>
       <c r="C11">
-        <v>0.5709659793884043</v>
+        <v>0.1689655748895689</v>
       </c>
       <c r="D11">
-        <v>0.0295079094220192</v>
+        <v>0.5995920664556991</v>
       </c>
       <c r="E11">
-        <v>0.02932856653404992</v>
+        <v>0.5670989651913132</v>
       </c>
       <c r="F11">
-        <v>2.093099059744532</v>
+        <v>10.55205455458412</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9714707072355679</v>
+        <v>1.394652851278266</v>
       </c>
       <c r="L11">
-        <v>0.2211139748892776</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6755915126096284</v>
+        <v>0.9829369418972078</v>
       </c>
       <c r="N11">
-        <v>0.9103519600892653</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.586500497513001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.161390619459723</v>
+        <v>1.419272228266919</v>
       </c>
       <c r="C12">
-        <v>0.5853253433647865</v>
+        <v>0.1745303049080036</v>
       </c>
       <c r="D12">
-        <v>0.02900509927515094</v>
+        <v>0.6133809150488787</v>
       </c>
       <c r="E12">
-        <v>0.02923961134803221</v>
+        <v>0.5836626836382166</v>
       </c>
       <c r="F12">
-        <v>2.138403068375609</v>
+        <v>10.8191372536017</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9981577442636507</v>
+        <v>1.437983728294284</v>
       </c>
       <c r="L12">
-        <v>0.2261410139953028</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6934603596425646</v>
+        <v>1.012426656229479</v>
       </c>
       <c r="N12">
-        <v>0.8994751042046616</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.618558757980367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.137782548951861</v>
+        <v>1.410243937763937</v>
       </c>
       <c r="C13">
-        <v>0.5822278956127036</v>
+        <v>0.1733252954382607</v>
       </c>
       <c r="D13">
-        <v>0.02911317002014924</v>
+        <v>0.610402338918675</v>
       </c>
       <c r="E13">
-        <v>0.02925862690092318</v>
+        <v>0.5800824688698754</v>
       </c>
       <c r="F13">
-        <v>2.128605329748254</v>
+        <v>10.76144580319732</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9923994077114457</v>
+        <v>1.42861135909888</v>
       </c>
       <c r="L13">
-        <v>0.2250554068309043</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6896038288232731</v>
+        <v>1.00605065918986</v>
       </c>
       <c r="N13">
-        <v>0.9018007048908032</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.611622228158922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.060970428554072</v>
+        <v>1.380939386271535</v>
       </c>
       <c r="C14">
-        <v>0.5721451527670922</v>
+        <v>0.1694204786762441</v>
       </c>
       <c r="D14">
-        <v>0.02946644500487983</v>
+        <v>0.6007225267357512</v>
       </c>
       <c r="E14">
-        <v>0.02932118412290174</v>
+        <v>0.5684559237163072</v>
       </c>
       <c r="F14">
-        <v>2.096808062789151</v>
+        <v>10.57395178689649</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9736614493163671</v>
+        <v>1.398199779651492</v>
       </c>
       <c r="L14">
-        <v>0.2215262370698099</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6770579550133178</v>
+        <v>0.9853520174958348</v>
       </c>
       <c r="N14">
-        <v>0.9094495324770264</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.589123559872291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.014055575116402</v>
+        <v>1.363093571923713</v>
       </c>
       <c r="C15">
-        <v>0.5659831995693025</v>
+        <v>0.1670473701649797</v>
       </c>
       <c r="D15">
-        <v>0.02968346986699144</v>
+        <v>0.5948187916616803</v>
       </c>
       <c r="E15">
-        <v>0.02935991707610563</v>
+        <v>0.5613713002867655</v>
       </c>
       <c r="F15">
-        <v>2.077448658193362</v>
+        <v>10.45959397424735</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9622149335056633</v>
+        <v>1.379687143196975</v>
       </c>
       <c r="L15">
-        <v>0.2193730066428969</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6693966990309974</v>
+        <v>0.9727446469417984</v>
       </c>
       <c r="N15">
-        <v>0.9141836982406133</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.575435338227066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.747163040714213</v>
+        <v>1.262323240379175</v>
       </c>
       <c r="C16">
-        <v>0.5308720948611949</v>
+        <v>0.1537153431475247</v>
       </c>
       <c r="D16">
-        <v>0.03093662117836971</v>
+        <v>0.5613498638361989</v>
       </c>
       <c r="E16">
-        <v>0.02958813145102646</v>
+        <v>0.5213023953751019</v>
       </c>
       <c r="F16">
-        <v>1.968226582036877</v>
+        <v>9.811252875478885</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8970688060074963</v>
+        <v>1.275255231848519</v>
       </c>
       <c r="L16">
-        <v>0.2071581008292895</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6258344731382763</v>
+        <v>0.9015179747150981</v>
       </c>
       <c r="N16">
-        <v>0.9420426930262309</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.49835495569755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.585066464725003</v>
+        <v>1.201738519691901</v>
       </c>
       <c r="C17">
-        <v>0.5094966114521355</v>
+        <v>0.1457552336596137</v>
       </c>
       <c r="D17">
-        <v>0.03171359065542134</v>
+        <v>0.5411140742367309</v>
       </c>
       <c r="E17">
-        <v>0.02973360100326516</v>
+        <v>0.4971570940465782</v>
       </c>
       <c r="F17">
-        <v>1.902672842450954</v>
+        <v>9.419268356177781</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8574771281474369</v>
+        <v>1.212553554055063</v>
       </c>
       <c r="L17">
-        <v>0.1997696651712602</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5993960486822374</v>
+        <v>0.8586625924956266</v>
       </c>
       <c r="N17">
-        <v>0.9597609340594317</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.452218473385329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.492389858714205</v>
+        <v>1.167307695879913</v>
       </c>
       <c r="C18">
-        <v>0.4972566139979335</v>
+        <v>0.141249740303536</v>
       </c>
       <c r="D18">
-        <v>0.03216340526542449</v>
+        <v>0.5295735222917699</v>
       </c>
       <c r="E18">
-        <v>0.02981923866927572</v>
+        <v>0.4834154634568009</v>
       </c>
       <c r="F18">
-        <v>1.865469382723404</v>
+        <v>9.195738345148271</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8348317829973979</v>
+        <v>1.176947726179009</v>
       </c>
       <c r="L18">
-        <v>0.195556343569578</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5842870835836464</v>
+        <v>0.8342953225026974</v>
       </c>
       <c r="N18">
-        <v>0.9701738236740312</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.426079852572187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.461102886205936</v>
+        <v>1.155718050266785</v>
       </c>
       <c r="C19">
-        <v>0.4931212252685953</v>
+        <v>0.1397361251875679</v>
       </c>
       <c r="D19">
-        <v>0.03231619854286549</v>
+        <v>0.5256820822576174</v>
       </c>
       <c r="E19">
-        <v>0.02984856823737303</v>
+        <v>0.4787866226096611</v>
       </c>
       <c r="F19">
-        <v>1.852956137877499</v>
+        <v>9.120369646937661</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8271852713100429</v>
+        <v>1.164967126608019</v>
       </c>
       <c r="L19">
-        <v>0.194135813353995</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5791875701963747</v>
+        <v>0.8260910319098826</v>
       </c>
       <c r="N19">
-        <v>0.973736742771905</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.417295845513564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.602263322277508</v>
+        <v>1.208144003971285</v>
       </c>
       <c r="C20">
-        <v>0.5117662916737515</v>
+        <v>0.1465948909782071</v>
       </c>
       <c r="D20">
-        <v>0.03163057651154322</v>
+        <v>0.5432577856744274</v>
       </c>
       <c r="E20">
-        <v>0.02971791098974297</v>
+        <v>0.4997119782424306</v>
       </c>
       <c r="F20">
-        <v>1.909598570466414</v>
+        <v>9.460792119385047</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8616783833649464</v>
+        <v>1.219179876161661</v>
       </c>
       <c r="L20">
-        <v>0.2005523686684541</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6022001921418507</v>
+        <v>0.8631948579837072</v>
       </c>
       <c r="N20">
-        <v>0.9578516455047392</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.457088062365742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.083503654783215</v>
+        <v>1.389524911866772</v>
       </c>
       <c r="C21">
-        <v>0.5751037423269452</v>
+        <v>0.1705634718637157</v>
       </c>
       <c r="D21">
-        <v>0.02936254690145512</v>
+        <v>0.6035603565285612</v>
       </c>
       <c r="E21">
-        <v>0.02930272283246627</v>
+        <v>0.5718631267119889</v>
       </c>
       <c r="F21">
-        <v>2.106123042152731</v>
+        <v>10.62892050942509</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9791587119015333</v>
+        <v>1.407108086465172</v>
       </c>
       <c r="L21">
-        <v>0.2225610569095124</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6807380499957745</v>
+        <v>0.9914167116877266</v>
       </c>
       <c r="N21">
-        <v>0.9071926124423086</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.595712459571459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.403936182121754</v>
+        <v>1.512621140427115</v>
       </c>
       <c r="C22">
-        <v>0.6171102455483037</v>
+        <v>0.1870449815015434</v>
       </c>
       <c r="D22">
-        <v>0.02790836713912848</v>
+        <v>0.6440811222647369</v>
       </c>
       <c r="E22">
-        <v>0.02904982559774583</v>
+        <v>0.6206340780183552</v>
       </c>
       <c r="F22">
-        <v>2.239727837748319</v>
+        <v>11.41367743482533</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.057298730624211</v>
+        <v>1.534973917373122</v>
       </c>
       <c r="L22">
-        <v>0.2373186458983554</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7330969504700064</v>
+        <v>1.078327681013349</v>
       </c>
       <c r="N22">
-        <v>0.8762545551801892</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.690399960432501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.232324922835744</v>
+        <v>1.446460564261059</v>
       </c>
       <c r="C23">
-        <v>0.5946280980099061</v>
+        <v>0.1781648321563409</v>
       </c>
       <c r="D23">
-        <v>0.0286818056120719</v>
+        <v>0.6223406198617738</v>
       </c>
       <c r="E23">
-        <v>0.02918306431808526</v>
+        <v>0.5944394711528247</v>
       </c>
       <c r="F23">
-        <v>2.167911689705178</v>
+        <v>10.99266817814055</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.01545755861018</v>
+        <v>1.466216849039228</v>
       </c>
       <c r="L23">
-        <v>0.2294054634701865</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7050495437437263</v>
+        <v>1.031625128985155</v>
       </c>
       <c r="N23">
-        <v>0.8925580761902978</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.63946117483593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.594487029429615</v>
+        <v>1.205246847076268</v>
       </c>
       <c r="C24">
-        <v>0.5107400177923012</v>
+        <v>0.1462150628709225</v>
       </c>
       <c r="D24">
-        <v>0.03166809749564869</v>
+        <v>0.5422883256416924</v>
       </c>
       <c r="E24">
-        <v>0.02972499820867025</v>
+        <v>0.4985564828634494</v>
       </c>
       <c r="F24">
-        <v>1.906465947945662</v>
+        <v>9.442013578426582</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8597786356682207</v>
+        <v>1.216182748620952</v>
       </c>
       <c r="L24">
-        <v>0.200198401842016</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6009321576498365</v>
+        <v>0.8611449833485665</v>
       </c>
       <c r="N24">
-        <v>0.9587141316417842</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.454885325144801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.927334569583195</v>
+        <v>0.96061605645599</v>
       </c>
       <c r="C25">
-        <v>0.4222844856750214</v>
+        <v>0.1144755486232754</v>
       </c>
       <c r="D25">
-        <v>0.03500027568904285</v>
+        <v>0.4596104250256019</v>
       </c>
       <c r="E25">
-        <v>0.03038438369766361</v>
+        <v>0.4005906089498197</v>
       </c>
       <c r="F25">
-        <v>1.643299694275029</v>
+        <v>7.84142902535794</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6965932944242752</v>
+        <v>0.9636247335802466</v>
       </c>
       <c r="L25">
-        <v>0.1700587818644266</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.492287050186377</v>
+        <v>0.6877959755429899</v>
       </c>
       <c r="N25">
-        <v>1.038466573472633</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.270752080431876</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.790164202956646</v>
+        <v>0.4365890793924621</v>
       </c>
       <c r="C2">
-        <v>0.092732283168246</v>
+        <v>0.0229848125899963</v>
       </c>
       <c r="D2">
-        <v>0.4008654923835167</v>
+        <v>0.2179683731167756</v>
       </c>
       <c r="E2">
-        <v>0.331781951377927</v>
+        <v>0.1375878983431775</v>
       </c>
       <c r="F2">
-        <v>6.7065684244252</v>
+        <v>3.77879553085458</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7882347474319431</v>
+        <v>0.3818434170172509</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5666188979596214</v>
+        <v>0.2546306249913073</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6791560981322675</v>
+        <v>0.41495687484462</v>
       </c>
       <c r="C3">
-        <v>0.0787217242701459</v>
+        <v>0.02054100797682423</v>
       </c>
       <c r="D3">
-        <v>0.3619561799473274</v>
+        <v>0.2057779472138606</v>
       </c>
       <c r="E3">
-        <v>0.2866611255121683</v>
+        <v>0.1255670726398108</v>
       </c>
       <c r="F3">
-        <v>5.957097198321804</v>
+        <v>3.557895458523234</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6742551340740874</v>
+        <v>0.3602888624461684</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4874593897444868</v>
+        <v>0.2359885170281188</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6127906166310595</v>
+        <v>0.402163730678609</v>
       </c>
       <c r="C4">
-        <v>0.07039593696360669</v>
+        <v>0.01908389746531469</v>
       </c>
       <c r="D4">
-        <v>0.3383894155944773</v>
+        <v>0.1982317192729255</v>
       </c>
       <c r="E4">
-        <v>0.2595439729616444</v>
+        <v>0.1182492430580666</v>
       </c>
       <c r="F4">
-        <v>5.504444855279132</v>
+        <v>3.422424573983392</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6061989687195961</v>
+        <v>0.3475414940870678</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4400166137278347</v>
+        <v>0.2247481408713696</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5861401069223575</v>
+        <v>0.3970726832776847</v>
       </c>
       <c r="C5">
-        <v>0.06706200002214757</v>
+        <v>0.01850080003072918</v>
       </c>
       <c r="D5">
-        <v>0.3288509242330804</v>
+        <v>0.195140718049629</v>
       </c>
       <c r="E5">
-        <v>0.2486201674446775</v>
+        <v>0.1152826547156707</v>
       </c>
       <c r="F5">
-        <v>5.321590231673724</v>
+        <v>3.367255022453122</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5788864016667077</v>
+        <v>0.3424684131769311</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4209355370157866</v>
+        <v>0.2202187676389897</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5817370342768129</v>
+        <v>0.3962346820407845</v>
       </c>
       <c r="C6">
-        <v>0.06651166620447668</v>
+        <v>0.01840461606765587</v>
       </c>
       <c r="D6">
-        <v>0.32727055206648</v>
+        <v>0.1946264891473959</v>
       </c>
       <c r="E6">
-        <v>0.2468133504255405</v>
+        <v>0.1147909799882854</v>
       </c>
       <c r="F6">
-        <v>5.291316365057952</v>
+        <v>3.358096186686765</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5743748365708399</v>
+        <v>0.3416333476347404</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4177812800105087</v>
+        <v>0.2194697414104425</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6124296750571148</v>
+        <v>0.4020945769558466</v>
       </c>
       <c r="C7">
-        <v>0.07035074925970264</v>
+        <v>0.01907599063510901</v>
       </c>
       <c r="D7">
-        <v>0.3382605327931145</v>
+        <v>0.1981900977190776</v>
       </c>
       <c r="E7">
-        <v>0.259396164219055</v>
+        <v>0.1182091723704985</v>
       </c>
       <c r="F7">
-        <v>5.501972677390171</v>
+        <v>3.421680399169105</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.605828997843588</v>
+        <v>0.3474725857253276</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4397583082540635</v>
+        <v>0.2246868497770649</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7514801275563627</v>
+        <v>0.4290283276575622</v>
       </c>
       <c r="C8">
-        <v>0.0878372109475265</v>
+        <v>0.02213304509371028</v>
       </c>
       <c r="D8">
-        <v>0.3873721312499043</v>
+        <v>0.2137775550301342</v>
       </c>
       <c r="E8">
-        <v>0.3160891193176312</v>
+        <v>0.1334298213663629</v>
       </c>
       <c r="F8">
-        <v>6.44640715566095</v>
+        <v>3.702592361287145</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7484940242617029</v>
+        <v>0.3743097075395667</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5390584213333725</v>
+        <v>0.2481597004513887</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.041294161029896</v>
+        <v>0.4857633054946575</v>
       </c>
       <c r="C9">
-        <v>0.1248714718378352</v>
+        <v>0.02848278974953189</v>
       </c>
       <c r="D9">
-        <v>0.4870672509079839</v>
+        <v>0.2438798400194315</v>
       </c>
       <c r="E9">
-        <v>0.4329915596586886</v>
+        <v>0.1637951062884611</v>
       </c>
       <c r="F9">
-        <v>8.372696682139576</v>
+        <v>4.255001867998317</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.046805806773079</v>
+        <v>0.4308494698544223</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7450282999726099</v>
+        <v>0.2958547618691796</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.269295406992029</v>
+        <v>0.5298922905263908</v>
       </c>
       <c r="C10">
-        <v>0.1546340545225888</v>
+        <v>0.03337945442947898</v>
       </c>
       <c r="D10">
-        <v>0.5636729932377307</v>
+        <v>0.265743963899439</v>
       </c>
       <c r="E10">
-        <v>0.524078329349976</v>
+        <v>0.1864469207310222</v>
       </c>
       <c r="F10">
-        <v>9.856255499334878</v>
+        <v>4.662184838814426</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.282475077704277</v>
+        <v>0.4748443858160272</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9064481671553608</v>
+        <v>0.3319579783199273</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.377520631707824</v>
+        <v>0.5505117540847664</v>
       </c>
       <c r="C11">
-        <v>0.1689655748895689</v>
+        <v>0.03566069354960177</v>
       </c>
       <c r="D11">
-        <v>0.5995920664556991</v>
+        <v>0.2756426529658995</v>
       </c>
       <c r="E11">
-        <v>0.5670989651913132</v>
+        <v>0.1968321778962974</v>
       </c>
       <c r="F11">
-        <v>10.55205455458412</v>
+        <v>4.847798002161312</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.394652851278266</v>
+        <v>0.4954076795042681</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9829369418972078</v>
+        <v>0.3486232691084155</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.419272228266919</v>
+        <v>0.5583991422754195</v>
       </c>
       <c r="C12">
-        <v>0.1745303049080036</v>
+        <v>0.03653253243929555</v>
       </c>
       <c r="D12">
-        <v>0.6133809150488787</v>
+        <v>0.2793847332979169</v>
       </c>
       <c r="E12">
-        <v>0.5836626836382166</v>
+        <v>0.200776875403136</v>
       </c>
       <c r="F12">
-        <v>10.8191372536017</v>
+        <v>4.918146339120653</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.437983728294284</v>
+        <v>0.5032747244793825</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.012426656229479</v>
+        <v>0.3549695319698927</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.410243937763937</v>
+        <v>0.5566969134648332</v>
       </c>
       <c r="C13">
-        <v>0.1733252954382607</v>
+        <v>0.03634440713275922</v>
       </c>
       <c r="D13">
-        <v>0.610402338918675</v>
+        <v>0.2785790835772843</v>
       </c>
       <c r="E13">
-        <v>0.5800824688698754</v>
+        <v>0.1999267728851351</v>
       </c>
       <c r="F13">
-        <v>10.76144580319732</v>
+        <v>4.902992779721785</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.42861135909888</v>
+        <v>0.5015768319546794</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.00605065918986</v>
+        <v>0.3536011612638177</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.380939386271535</v>
+        <v>0.5511590609695816</v>
       </c>
       <c r="C14">
-        <v>0.1694204786762441</v>
+        <v>0.035732258773578</v>
       </c>
       <c r="D14">
-        <v>0.6007225267357512</v>
+        <v>0.2759506404388219</v>
       </c>
       <c r="E14">
-        <v>0.5684559237163072</v>
+        <v>0.1971564671884423</v>
       </c>
       <c r="F14">
-        <v>10.57395178689649</v>
+        <v>4.853584354661962</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.398199779651492</v>
+        <v>0.4960532928090231</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9853520174958348</v>
+        <v>0.3491446647835801</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.363093571923713</v>
+        <v>0.5477773128518209</v>
       </c>
       <c r="C15">
-        <v>0.1670473701649797</v>
+        <v>0.03535834759371426</v>
       </c>
       <c r="D15">
-        <v>0.5948187916616803</v>
+        <v>0.2743398319631751</v>
       </c>
       <c r="E15">
-        <v>0.5613713002867655</v>
+        <v>0.1954611531454944</v>
       </c>
       <c r="F15">
-        <v>10.45959397424735</v>
+        <v>4.823328332074823</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.379687143196975</v>
+        <v>0.492680439761358</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9727446469417984</v>
+        <v>0.346419573843022</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.262323240379175</v>
+        <v>0.5285558009489932</v>
       </c>
       <c r="C16">
-        <v>0.1537153431475247</v>
+        <v>0.03323147307578722</v>
       </c>
       <c r="D16">
-        <v>0.5613498638361989</v>
+        <v>0.265096148147336</v>
       </c>
       <c r="E16">
-        <v>0.5213023953751019</v>
+        <v>0.1857698805716268</v>
       </c>
       <c r="F16">
-        <v>9.811252875478885</v>
+        <v>4.650062769241345</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.275255231848519</v>
+        <v>0.4735116839950706</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9015179747150981</v>
+        <v>0.3308737879318002</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.201738519691901</v>
+        <v>0.516904224727142</v>
       </c>
       <c r="C17">
-        <v>0.1457552336596137</v>
+        <v>0.03194064625461124</v>
       </c>
       <c r="D17">
-        <v>0.5411140742367309</v>
+        <v>0.2594136443586592</v>
       </c>
       <c r="E17">
-        <v>0.4971570940465782</v>
+        <v>0.1798455863790238</v>
       </c>
       <c r="F17">
-        <v>9.419268356177781</v>
+        <v>4.543872093339985</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.212553554055063</v>
+        <v>0.4618938719459322</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8586625924956266</v>
+        <v>0.3213993759142468</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.167307695879913</v>
+        <v>0.5102537874046504</v>
       </c>
       <c r="C18">
-        <v>0.141249740303536</v>
+        <v>0.03120323769613265</v>
       </c>
       <c r="D18">
-        <v>0.5295735222917699</v>
+        <v>0.2561407270967351</v>
       </c>
       <c r="E18">
-        <v>0.4834154634568009</v>
+        <v>0.1764456730249222</v>
       </c>
       <c r="F18">
-        <v>9.195738345148271</v>
+        <v>4.482829796502671</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.176947726179009</v>
+        <v>0.4552632942943546</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8342953225026974</v>
+        <v>0.3159726564784791</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.155718050266785</v>
+        <v>0.5080108378277544</v>
       </c>
       <c r="C19">
-        <v>0.1397361251875679</v>
+        <v>0.030954421807877</v>
       </c>
       <c r="D19">
-        <v>0.5256820822576174</v>
+        <v>0.2550317876130919</v>
       </c>
       <c r="E19">
-        <v>0.4787866226096611</v>
+        <v>0.1752958111804617</v>
       </c>
       <c r="F19">
-        <v>9.120369646937661</v>
+        <v>4.46216790109878</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.164967126608019</v>
+        <v>0.4530271372381094</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8260910319098826</v>
+        <v>0.314139141723274</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.208144003971285</v>
+        <v>0.5181392453346234</v>
       </c>
       <c r="C20">
-        <v>0.1465948909782071</v>
+        <v>0.03207753340335273</v>
       </c>
       <c r="D20">
-        <v>0.5432577856744274</v>
+        <v>0.2600190179680624</v>
       </c>
       <c r="E20">
-        <v>0.4997119782424306</v>
+        <v>0.1804754498020174</v>
       </c>
       <c r="F20">
-        <v>9.460792119385047</v>
+        <v>4.55517253028242</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.219179876161661</v>
+        <v>0.4631252511346986</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8631948579837072</v>
+        <v>0.3224055875299356</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.389524911866772</v>
+        <v>0.552783504702802</v>
       </c>
       <c r="C21">
-        <v>0.1705634718637157</v>
+        <v>0.03591184284987037</v>
       </c>
       <c r="D21">
-        <v>0.6035603565285612</v>
+        <v>0.2767228460881199</v>
       </c>
       <c r="E21">
-        <v>0.5718631267119889</v>
+        <v>0.1979698435059376</v>
       </c>
       <c r="F21">
-        <v>10.62892050942509</v>
+        <v>4.868095116235907</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.407108086465172</v>
+        <v>0.4976735053242862</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9914167116877266</v>
+        <v>0.3504526771804279</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.512621140427115</v>
+        <v>0.5758878521774307</v>
       </c>
       <c r="C22">
-        <v>0.1870449815015434</v>
+        <v>0.03846444013483108</v>
       </c>
       <c r="D22">
-        <v>0.6440811222647369</v>
+        <v>0.2876030434817949</v>
       </c>
       <c r="E22">
-        <v>0.6206340780183552</v>
+        <v>0.2094737290249498</v>
       </c>
       <c r="F22">
-        <v>11.41367743482533</v>
+        <v>5.072964301113245</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.534973917373122</v>
+        <v>0.5207206222670777</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.078327681013349</v>
+        <v>0.3689902107869543</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.446460564261059</v>
+        <v>0.5635140291904861</v>
       </c>
       <c r="C23">
-        <v>0.1781648321563409</v>
+        <v>0.03709771577422316</v>
       </c>
       <c r="D23">
-        <v>0.6223406198617738</v>
+        <v>0.2817992779401379</v>
       </c>
       <c r="E23">
-        <v>0.5944394711528247</v>
+        <v>0.2033273229360191</v>
       </c>
       <c r="F23">
-        <v>10.99266817814055</v>
+        <v>4.963587331918802</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.466216849039228</v>
+        <v>0.5083767616616797</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.031625128985155</v>
+        <v>0.3590771875059033</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.205246847076268</v>
+        <v>0.5175807424232914</v>
       </c>
       <c r="C24">
-        <v>0.1462150628709225</v>
+        <v>0.03201563208817504</v>
       </c>
       <c r="D24">
-        <v>0.5422883256416924</v>
+        <v>0.2597453471911422</v>
       </c>
       <c r="E24">
-        <v>0.4985564828634494</v>
+        <v>0.1801906697584599</v>
       </c>
       <c r="F24">
-        <v>9.442013578426582</v>
+        <v>4.55006357780934</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.216182748620952</v>
+        <v>0.4625683931307378</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8611449833485665</v>
+        <v>0.3219506162498007</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.96061605645599</v>
+        <v>0.4699896866073914</v>
       </c>
       <c r="C25">
-        <v>0.1144755486232754</v>
+        <v>0.0267254691854788</v>
       </c>
       <c r="D25">
-        <v>0.4596104250256019</v>
+        <v>0.235782901811902</v>
       </c>
       <c r="E25">
-        <v>0.4005906089498197</v>
+        <v>0.1555223178531051</v>
       </c>
       <c r="F25">
-        <v>7.84142902535794</v>
+        <v>4.105355574994093</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9636247335802466</v>
+        <v>0.4151279556318173</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6877959755429899</v>
+        <v>0.2827689630748225</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4365890793924621</v>
+        <v>0.7901642029569302</v>
       </c>
       <c r="C2">
-        <v>0.0229848125899963</v>
+        <v>0.09273228316871496</v>
       </c>
       <c r="D2">
-        <v>0.2179683731167756</v>
+        <v>0.4008654923835593</v>
       </c>
       <c r="E2">
-        <v>0.1375878983431775</v>
+        <v>0.3317819513779554</v>
       </c>
       <c r="F2">
-        <v>3.77879553085458</v>
+        <v>6.706568424425114</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3818434170172509</v>
+        <v>0.7882347474317726</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2546306249913073</v>
+        <v>0.5666188979596285</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.41495687484462</v>
+        <v>0.6791560981326086</v>
       </c>
       <c r="C3">
-        <v>0.02054100797682423</v>
+        <v>0.07872172427052959</v>
       </c>
       <c r="D3">
-        <v>0.2057779472138606</v>
+        <v>0.3619561799473416</v>
       </c>
       <c r="E3">
-        <v>0.1255670726398108</v>
+        <v>0.2866611255121825</v>
       </c>
       <c r="F3">
-        <v>3.557895458523234</v>
+        <v>5.957097198321748</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3602888624461684</v>
+        <v>0.6742551340740448</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2359885170281188</v>
+        <v>0.4874593897444939</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.402163730678609</v>
+        <v>0.6127906166305479</v>
       </c>
       <c r="C4">
-        <v>0.01908389746531469</v>
+        <v>0.07039593696381985</v>
       </c>
       <c r="D4">
-        <v>0.1982317192729255</v>
+        <v>0.3383894155940226</v>
       </c>
       <c r="E4">
-        <v>0.1182492430580666</v>
+        <v>0.2595439729616729</v>
       </c>
       <c r="F4">
-        <v>3.422424573983392</v>
+        <v>5.504444855279218</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3475414940870678</v>
+        <v>0.6061989687197666</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2247481408713696</v>
+        <v>0.4400166137278418</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3970726832776847</v>
+        <v>0.5861401069223007</v>
       </c>
       <c r="C5">
-        <v>0.01850080003072918</v>
+        <v>0.06706200002215468</v>
       </c>
       <c r="D5">
-        <v>0.195140718049629</v>
+        <v>0.3288509242331514</v>
       </c>
       <c r="E5">
-        <v>0.1152826547156707</v>
+        <v>0.2486201674446846</v>
       </c>
       <c r="F5">
-        <v>3.367255022453122</v>
+        <v>5.321590231673724</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3424684131769311</v>
+        <v>0.5788864016667929</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2202187676389897</v>
+        <v>0.4209355370157937</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3962346820407845</v>
+        <v>0.581737034276756</v>
       </c>
       <c r="C6">
-        <v>0.01840461606765587</v>
+        <v>0.06651166620444826</v>
       </c>
       <c r="D6">
-        <v>0.1946264891473959</v>
+        <v>0.3272705520662669</v>
       </c>
       <c r="E6">
-        <v>0.1147909799882854</v>
+        <v>0.2468133504255334</v>
       </c>
       <c r="F6">
-        <v>3.358096186686765</v>
+        <v>5.291316365058009</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3416333476347404</v>
+        <v>0.574374836571053</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2194697414104425</v>
+        <v>0.4177812800105016</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4020945769558466</v>
+        <v>0.6124296750572285</v>
       </c>
       <c r="C7">
-        <v>0.01907599063510901</v>
+        <v>0.07035074926005791</v>
       </c>
       <c r="D7">
-        <v>0.1981900977190776</v>
+        <v>0.3382605327927735</v>
       </c>
       <c r="E7">
-        <v>0.1182091723704985</v>
+        <v>0.259396164219055</v>
       </c>
       <c r="F7">
-        <v>3.421680399169105</v>
+        <v>5.501972677390199</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3474725857253276</v>
+        <v>0.6058289978437017</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2246868497770649</v>
+        <v>0.4397583082540635</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4290283276575622</v>
+        <v>0.7514801275564764</v>
       </c>
       <c r="C8">
-        <v>0.02213304509371028</v>
+        <v>0.08783721094751229</v>
       </c>
       <c r="D8">
-        <v>0.2137775550301342</v>
+        <v>0.3873721312492364</v>
       </c>
       <c r="E8">
-        <v>0.1334298213663629</v>
+        <v>0.3160891193177093</v>
       </c>
       <c r="F8">
-        <v>3.702592361287145</v>
+        <v>6.446407155660978</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3743097075395667</v>
+        <v>0.7484940242619018</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2481597004513887</v>
+        <v>0.5390584213334151</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4857633054946575</v>
+        <v>1.041294161029441</v>
       </c>
       <c r="C9">
-        <v>0.02848278974953189</v>
+        <v>0.1248714718379063</v>
       </c>
       <c r="D9">
-        <v>0.2438798400194315</v>
+        <v>0.4870672509085523</v>
       </c>
       <c r="E9">
-        <v>0.1637951062884611</v>
+        <v>0.4329915596586176</v>
       </c>
       <c r="F9">
-        <v>4.255001867998317</v>
+        <v>8.372696682139321</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4308494698544223</v>
+        <v>1.046805806772966</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2958547618691796</v>
+        <v>0.745028299972617</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5298922905263908</v>
+        <v>1.269295406991858</v>
       </c>
       <c r="C10">
-        <v>0.03337945442947898</v>
+        <v>0.1546340545220772</v>
       </c>
       <c r="D10">
-        <v>0.265743963899439</v>
+        <v>0.5636729932374465</v>
       </c>
       <c r="E10">
-        <v>0.1864469207310222</v>
+        <v>0.5240783293501252</v>
       </c>
       <c r="F10">
-        <v>4.662184838814426</v>
+        <v>9.856255499335077</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4748443858160272</v>
+        <v>1.282475077704333</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3319579783199273</v>
+        <v>0.9064481671553395</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5505117540847664</v>
+        <v>1.377520631707512</v>
       </c>
       <c r="C11">
-        <v>0.03566069354960177</v>
+        <v>0.1689655748890431</v>
       </c>
       <c r="D11">
-        <v>0.2756426529658995</v>
+        <v>0.5995920664556706</v>
       </c>
       <c r="E11">
-        <v>0.1968321778962974</v>
+        <v>0.5670989651914198</v>
       </c>
       <c r="F11">
-        <v>4.847798002161312</v>
+        <v>10.55205455458412</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4954076795042681</v>
+        <v>1.394652851278352</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3486232691084155</v>
+        <v>0.9829369418972362</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5583991422754195</v>
+        <v>1.419272228267175</v>
       </c>
       <c r="C12">
-        <v>0.03653253243929555</v>
+        <v>0.1745303049081315</v>
       </c>
       <c r="D12">
-        <v>0.2793847332979169</v>
+        <v>0.6133809150487934</v>
       </c>
       <c r="E12">
-        <v>0.200776875403136</v>
+        <v>0.5836626836381953</v>
       </c>
       <c r="F12">
-        <v>4.918146339120653</v>
+        <v>10.81913725360135</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5032747244793825</v>
+        <v>1.437983728294427</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3549695319698927</v>
+        <v>1.012426656229493</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5566969134648332</v>
+        <v>1.410243937764051</v>
       </c>
       <c r="C13">
-        <v>0.03634440713275922</v>
+        <v>0.1733252954382039</v>
       </c>
       <c r="D13">
-        <v>0.2785790835772843</v>
+        <v>0.6104023389188455</v>
       </c>
       <c r="E13">
-        <v>0.1999267728851351</v>
+        <v>0.5800824688699322</v>
       </c>
       <c r="F13">
-        <v>4.902992779721785</v>
+        <v>10.76144580319738</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5015768319546794</v>
+        <v>1.428611359098994</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3536011612638177</v>
+        <v>1.006050659189853</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5511590609695816</v>
+        <v>1.380939386271876</v>
       </c>
       <c r="C14">
-        <v>0.035732258773578</v>
+        <v>0.169420478677111</v>
       </c>
       <c r="D14">
-        <v>0.2759506404388219</v>
+        <v>0.6007225267361207</v>
       </c>
       <c r="E14">
-        <v>0.1971564671884423</v>
+        <v>0.5684559237162787</v>
       </c>
       <c r="F14">
-        <v>4.853584354661962</v>
+        <v>10.57395178689671</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4960532928090231</v>
+        <v>1.398199779651549</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3491446647835801</v>
+        <v>0.9853520174958348</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5477773128518209</v>
+        <v>1.363093571923855</v>
       </c>
       <c r="C15">
-        <v>0.03535834759371426</v>
+        <v>0.1670473701649797</v>
       </c>
       <c r="D15">
-        <v>0.2743398319631751</v>
+        <v>0.5948187916611687</v>
       </c>
       <c r="E15">
-        <v>0.1954611531454944</v>
+        <v>0.5613713002868224</v>
       </c>
       <c r="F15">
-        <v>4.823328332074823</v>
+        <v>10.45959397424747</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.492680439761358</v>
+        <v>1.379687143196861</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.346419573843022</v>
+        <v>0.9727446469418126</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5285558009489932</v>
+        <v>1.262323240379345</v>
       </c>
       <c r="C16">
-        <v>0.03323147307578722</v>
+        <v>0.1537153431465867</v>
       </c>
       <c r="D16">
-        <v>0.265096148147336</v>
+        <v>0.5613498638366536</v>
       </c>
       <c r="E16">
-        <v>0.1857698805716268</v>
+        <v>0.5213023953751659</v>
       </c>
       <c r="F16">
-        <v>4.650062769241345</v>
+        <v>9.811252875478914</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4735116839950706</v>
+        <v>1.275255231848661</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3308737879318002</v>
+        <v>0.9015179747151123</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.516904224727142</v>
+        <v>1.201738519692242</v>
       </c>
       <c r="C17">
-        <v>0.03194064625461124</v>
+        <v>0.145755233659699</v>
       </c>
       <c r="D17">
-        <v>0.2594136443586592</v>
+        <v>0.5411140742363614</v>
       </c>
       <c r="E17">
-        <v>0.1798455863790238</v>
+        <v>0.4971570940464147</v>
       </c>
       <c r="F17">
-        <v>4.543872093339985</v>
+        <v>9.419268356177639</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4618938719459322</v>
+        <v>1.212553554054949</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3213993759142468</v>
+        <v>0.8586625924956053</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5102537874046504</v>
+        <v>1.167307695879828</v>
       </c>
       <c r="C18">
-        <v>0.03120323769613265</v>
+        <v>0.1412497403036213</v>
       </c>
       <c r="D18">
-        <v>0.2561407270967351</v>
+        <v>0.5295735222920825</v>
       </c>
       <c r="E18">
-        <v>0.1764456730249222</v>
+        <v>0.4834154634567867</v>
       </c>
       <c r="F18">
-        <v>4.482829796502671</v>
+        <v>9.195738345148101</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4552632942943546</v>
+        <v>1.176947726178895</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3159726564784791</v>
+        <v>0.8342953225026193</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5080108378277544</v>
+        <v>1.155718050266898</v>
       </c>
       <c r="C19">
-        <v>0.030954421807877</v>
+        <v>0.139736125188108</v>
       </c>
       <c r="D19">
-        <v>0.2550317876130919</v>
+        <v>0.5256820822579584</v>
       </c>
       <c r="E19">
-        <v>0.1752958111804617</v>
+        <v>0.4787866226097606</v>
       </c>
       <c r="F19">
-        <v>4.46216790109878</v>
+        <v>9.120369646937576</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4530271372381094</v>
+        <v>1.164967126608047</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.314139141723274</v>
+        <v>0.8260910319098542</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5181392453346234</v>
+        <v>1.208144003971142</v>
       </c>
       <c r="C20">
-        <v>0.03207753340335273</v>
+        <v>0.1465948909782782</v>
       </c>
       <c r="D20">
-        <v>0.2600190179680624</v>
+        <v>0.5432577856742569</v>
       </c>
       <c r="E20">
-        <v>0.1804754498020174</v>
+        <v>0.4997119782425088</v>
       </c>
       <c r="F20">
-        <v>4.55517253028242</v>
+        <v>9.460792119384934</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4631252511346986</v>
+        <v>1.219179876161604</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3224055875299356</v>
+        <v>0.8631948579837356</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.552783504702802</v>
+        <v>1.389524911866516</v>
       </c>
       <c r="C21">
-        <v>0.03591184284987037</v>
+        <v>0.1705634718642415</v>
       </c>
       <c r="D21">
-        <v>0.2767228460881199</v>
+        <v>0.603560356529016</v>
       </c>
       <c r="E21">
-        <v>0.1979698435059376</v>
+        <v>0.5718631267119534</v>
       </c>
       <c r="F21">
-        <v>4.868095116235907</v>
+        <v>10.62892050942509</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4976735053242862</v>
+        <v>1.407108086465087</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3504526771804279</v>
+        <v>0.9914167116877195</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5758878521774307</v>
+        <v>1.512621140427484</v>
       </c>
       <c r="C22">
-        <v>0.03846444013483108</v>
+        <v>0.187044981502666</v>
       </c>
       <c r="D22">
-        <v>0.2876030434817949</v>
+        <v>0.6440811222647653</v>
       </c>
       <c r="E22">
-        <v>0.2094737290249498</v>
+        <v>0.6206340780183268</v>
       </c>
       <c r="F22">
-        <v>5.072964301113245</v>
+        <v>11.41367743482516</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5207206222670777</v>
+        <v>1.534973917373122</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3689902107869543</v>
+        <v>1.07832768101337</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5635140291904861</v>
+        <v>1.446460564261173</v>
       </c>
       <c r="C23">
-        <v>0.03709771577422316</v>
+        <v>0.1781648321562841</v>
       </c>
       <c r="D23">
-        <v>0.2817992779401379</v>
+        <v>0.6223406198618875</v>
       </c>
       <c r="E23">
-        <v>0.2033273229360191</v>
+        <v>0.5944394711528389</v>
       </c>
       <c r="F23">
-        <v>4.963587331918802</v>
+        <v>10.99266817814072</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5083767616616797</v>
+        <v>1.466216849039171</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3590771875059033</v>
+        <v>1.031625128985219</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5175807424232914</v>
+        <v>1.205246847076069</v>
       </c>
       <c r="C24">
-        <v>0.03201563208817504</v>
+        <v>0.1462150628709367</v>
       </c>
       <c r="D24">
-        <v>0.2597453471911422</v>
+        <v>0.5422883256417492</v>
       </c>
       <c r="E24">
-        <v>0.1801906697584599</v>
+        <v>0.4985564828635276</v>
       </c>
       <c r="F24">
-        <v>4.55006357780934</v>
+        <v>9.442013578426554</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4625683931307378</v>
+        <v>1.216182748621122</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3219506162498007</v>
+        <v>0.8611449833485381</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4699896866073914</v>
+        <v>0.9606160564560469</v>
       </c>
       <c r="C25">
-        <v>0.0267254691854788</v>
+        <v>0.1144755486232896</v>
       </c>
       <c r="D25">
-        <v>0.235782901811902</v>
+        <v>0.4596104250256445</v>
       </c>
       <c r="E25">
-        <v>0.1555223178531051</v>
+        <v>0.4005906089499121</v>
       </c>
       <c r="F25">
-        <v>4.105355574994093</v>
+        <v>7.841429025357826</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4151279556318173</v>
+        <v>0.9636247335802182</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2827689630748225</v>
+        <v>0.6877959755430396</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7901642029569302</v>
+        <v>0.9177731454457216</v>
       </c>
       <c r="C2">
-        <v>0.09273228316871496</v>
+        <v>0.1492507200653037</v>
       </c>
       <c r="D2">
-        <v>0.4008654923835593</v>
+        <v>0.07810887162689539</v>
       </c>
       <c r="E2">
-        <v>0.3317819513779554</v>
+        <v>0.0598758276721032</v>
       </c>
       <c r="F2">
-        <v>6.706568424425114</v>
+        <v>0.559684329321513</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.004726976369519242</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.004459227806176358</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0.7882347474317726</v>
+        <v>0.4344388642123285</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5666188979596285</v>
+        <v>0.8374037737868036</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1684398082602598</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2071531332559218</v>
+      </c>
+      <c r="P2">
+        <v>0.9742206376802336</v>
+      </c>
+      <c r="Q2">
+        <v>1.75113489504605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6791560981326086</v>
+        <v>0.7997746148772649</v>
       </c>
       <c r="C3">
-        <v>0.07872172427052959</v>
+        <v>0.139184020299723</v>
       </c>
       <c r="D3">
-        <v>0.3619561799473416</v>
+        <v>0.07087126792311693</v>
       </c>
       <c r="E3">
-        <v>0.2866611255121825</v>
+        <v>0.05651355216983767</v>
       </c>
       <c r="F3">
-        <v>5.957097198321748</v>
+        <v>0.5350672914729984</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.006354198922114196</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.005977372833199546</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0.6742551340740448</v>
+        <v>0.430887498845518</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4874593897444939</v>
+        <v>0.7300508179719429</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1509738067845845</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1815488233001368</v>
+      </c>
+      <c r="P3">
+        <v>1.003944359796143</v>
+      </c>
+      <c r="Q3">
+        <v>1.710716483718699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6127906166305479</v>
+        <v>0.7270048820590205</v>
       </c>
       <c r="C4">
-        <v>0.07039593696381985</v>
+        <v>0.1330242123364513</v>
       </c>
       <c r="D4">
-        <v>0.3383894155940226</v>
+        <v>0.06642005472342305</v>
       </c>
       <c r="E4">
-        <v>0.2595439729616729</v>
+        <v>0.05442007302293916</v>
       </c>
       <c r="F4">
-        <v>5.504444855279218</v>
+        <v>0.5203824126665992</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007516971524599125</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.007103998890101604</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0.6061989687197666</v>
+        <v>0.4288954796846234</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4400166137278418</v>
+        <v>0.6640461252710281</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1402632373192034</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1657927831733552</v>
+      </c>
+      <c r="P4">
+        <v>1.022758233135329</v>
+      </c>
+      <c r="Q4">
+        <v>1.687136565710958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5861401069223007</v>
+        <v>0.6966298116919063</v>
       </c>
       <c r="C5">
-        <v>0.06706200002215468</v>
+        <v>0.1306742696121148</v>
       </c>
       <c r="D5">
-        <v>0.3288509242331514</v>
+        <v>0.0646531688543206</v>
       </c>
       <c r="E5">
-        <v>0.2486201674446846</v>
+        <v>0.05352555928064717</v>
       </c>
       <c r="F5">
-        <v>5.321590231673724</v>
+        <v>0.5141105139359823</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.008034032993711637</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.007691320747607477</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0.5788864016667929</v>
+        <v>0.4277797758955231</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4209355370157937</v>
+        <v>0.6370936367789284</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1359583064070407</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1592935814817906</v>
+      </c>
+      <c r="P5">
+        <v>1.030441254833206</v>
+      </c>
+      <c r="Q5">
+        <v>1.676553485002216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.581737034276756</v>
+        <v>0.6907986142205971</v>
       </c>
       <c r="C6">
-        <v>0.06651166620444826</v>
+        <v>0.1304774087106679</v>
       </c>
       <c r="D6">
-        <v>0.3272705520662669</v>
+        <v>0.06442013316058137</v>
       </c>
       <c r="E6">
-        <v>0.2468133504255334</v>
+        <v>0.05333517764184137</v>
       </c>
       <c r="F6">
-        <v>5.291316365058009</v>
+        <v>0.5125966999863891</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.008126544904029198</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00789788841545036</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0.574374836571053</v>
+        <v>0.427169580315411</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4177812800105016</v>
+        <v>0.632581888275638</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1353138701354339</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1581292584895451</v>
+      </c>
+      <c r="P6">
+        <v>1.031577010896929</v>
+      </c>
+      <c r="Q6">
+        <v>1.673256608901852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6124296750572285</v>
+        <v>0.7244511872187047</v>
       </c>
       <c r="C7">
-        <v>0.07035074926005791</v>
+        <v>0.1335219254964954</v>
       </c>
       <c r="D7">
-        <v>0.3382605327927735</v>
+        <v>0.06656220519993639</v>
       </c>
       <c r="E7">
-        <v>0.259396164219055</v>
+        <v>0.05429513728688207</v>
       </c>
       <c r="F7">
-        <v>5.501972677390199</v>
+        <v>0.5189907187125158</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.007534814387419625</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.007385638232527469</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0.6058289978437017</v>
+        <v>0.4277134791348622</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4397583082540635</v>
+        <v>0.6635875523419514</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1403977891605308</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.165473577408271</v>
+      </c>
+      <c r="P7">
+        <v>1.022469027955817</v>
+      </c>
+      <c r="Q7">
+        <v>1.682742642237073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7514801275564764</v>
+        <v>0.8742861314173354</v>
       </c>
       <c r="C8">
-        <v>0.08783721094751229</v>
+        <v>0.1464854596542082</v>
       </c>
       <c r="D8">
-        <v>0.3873721312492364</v>
+        <v>0.07583739125538358</v>
       </c>
       <c r="E8">
-        <v>0.3160891193177093</v>
+        <v>0.05857364648220553</v>
       </c>
       <c r="F8">
-        <v>6.446407155660978</v>
+        <v>0.5493770557168034</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.005264683278931814</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00527038377538247</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0.7484940242619018</v>
+        <v>0.4316386784301649</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5390584213334151</v>
+        <v>0.8002748720461739</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1626719862696788</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1980223126749436</v>
+      </c>
+      <c r="P8">
+        <v>0.9838895288451264</v>
+      </c>
+      <c r="Q8">
+        <v>1.731330860123691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.041294161029441</v>
+        <v>1.169559985548574</v>
       </c>
       <c r="C9">
-        <v>0.1248714718379063</v>
+        <v>0.1712120677686713</v>
       </c>
       <c r="D9">
-        <v>0.4870672509085523</v>
+        <v>0.09368970068521776</v>
       </c>
       <c r="E9">
-        <v>0.4329915596586176</v>
+        <v>0.0669464632376755</v>
       </c>
       <c r="F9">
-        <v>8.372696682139321</v>
+        <v>0.6149327768101926</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.00216495845772835</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002325851297054982</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>1.046805806772966</v>
+        <v>0.4429690310796204</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.745028299972617</v>
+        <v>1.068001568794188</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2061611973123973</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.262026801660685</v>
+      </c>
+      <c r="P9">
+        <v>0.9134403508832697</v>
+      </c>
+      <c r="Q9">
+        <v>1.844545341144311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.269295406991858</v>
+        <v>1.37688851418136</v>
       </c>
       <c r="C10">
-        <v>0.1546340545220772</v>
+        <v>0.1917189012962979</v>
       </c>
       <c r="D10">
-        <v>0.5636729932374465</v>
+        <v>0.1077775664150664</v>
       </c>
       <c r="E10">
-        <v>0.5240783293501252</v>
+        <v>0.0701766732948208</v>
       </c>
       <c r="F10">
-        <v>9.856255499335077</v>
+        <v>0.6586462776025215</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001074386822383921</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001412059078367278</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>1.282475077704333</v>
+        <v>0.4467877352851808</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9064481671553395</v>
+        <v>1.264132766284433</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2269157845157252</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3024154991431729</v>
+      </c>
+      <c r="P10">
+        <v>0.8635629873704076</v>
+      </c>
+      <c r="Q10">
+        <v>1.912390823823927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.377520631707512</v>
+        <v>1.404536954690627</v>
       </c>
       <c r="C11">
-        <v>0.1689655748890431</v>
+        <v>0.2191021126857038</v>
       </c>
       <c r="D11">
-        <v>0.5995920664556706</v>
+        <v>0.1224832437364682</v>
       </c>
       <c r="E11">
-        <v>0.5670989651914198</v>
+        <v>0.05276151088115633</v>
       </c>
       <c r="F11">
-        <v>10.55205455458412</v>
+        <v>0.6224803969351953</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01970695400611433</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001770013804325288</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>1.394652851278352</v>
+        <v>0.4053057551877686</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9829369418972362</v>
+        <v>1.348454284272833</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.148732128204216</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2663359888908232</v>
+      </c>
+      <c r="P11">
+        <v>0.8378831329832774</v>
+      </c>
+      <c r="Q11">
+        <v>1.764828356537464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.419272228267175</v>
+        <v>1.386814254688062</v>
       </c>
       <c r="C12">
-        <v>0.1745303049081315</v>
+        <v>0.2391372457136924</v>
       </c>
       <c r="D12">
-        <v>0.6133809150487934</v>
+        <v>0.1321932966216366</v>
       </c>
       <c r="E12">
-        <v>0.5836626836381953</v>
+        <v>0.04444493425916107</v>
       </c>
       <c r="F12">
-        <v>10.81913725360135</v>
+        <v>0.5849240308204955</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05851735154366366</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001746485700345524</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>1.437983728294427</v>
+        <v>0.3729119474070259</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.012426656229493</v>
+        <v>1.378291303639941</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.09380660512809413</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.229929454129973</v>
+      </c>
+      <c r="P12">
+        <v>0.8329439822966904</v>
+      </c>
+      <c r="Q12">
+        <v>1.635306542498569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.410243937764051</v>
+        <v>1.329859644313217</v>
       </c>
       <c r="C13">
-        <v>0.1733252954382039</v>
+        <v>0.2552691418378288</v>
       </c>
       <c r="D13">
-        <v>0.6104023389188455</v>
+        <v>0.1387813913312073</v>
       </c>
       <c r="E13">
-        <v>0.5800824688699322</v>
+        <v>0.04235331304758061</v>
       </c>
       <c r="F13">
-        <v>10.76144580319738</v>
+        <v>0.5419689562742178</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1144939451080944</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001798602722766773</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>1.428611359098994</v>
+        <v>0.3437479637142147</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.006050659189853</v>
+        <v>1.367461053589722</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05396392888316015</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.1910325925192531</v>
+      </c>
+      <c r="P13">
+        <v>0.8423096920305895</v>
+      </c>
+      <c r="Q13">
+        <v>1.505200006734071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.380939386271876</v>
+        <v>1.271857835972554</v>
       </c>
       <c r="C14">
-        <v>0.169420478677111</v>
+        <v>0.2651724723991293</v>
       </c>
       <c r="D14">
-        <v>0.6007225267361207</v>
+        <v>0.1420487315228485</v>
       </c>
       <c r="E14">
-        <v>0.5684559237162787</v>
+        <v>0.04457399970735576</v>
       </c>
       <c r="F14">
-        <v>10.57395178689671</v>
+        <v>0.5093960708525458</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1640392933466615</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001969214288005006</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>1.398199779651549</v>
+        <v>0.3248816118419136</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9853520174958348</v>
+        <v>1.341445387497089</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03518299662079194</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1631867302661156</v>
+      </c>
+      <c r="P14">
+        <v>0.8558453828056365</v>
+      </c>
+      <c r="Q14">
+        <v>1.413893660461056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.363093571923855</v>
+        <v>1.248731967038225</v>
       </c>
       <c r="C15">
-        <v>0.1670473701649797</v>
+        <v>0.2667819768041682</v>
       </c>
       <c r="D15">
-        <v>0.5948187916611687</v>
+        <v>0.1421746268165123</v>
       </c>
       <c r="E15">
-        <v>0.5613713002868224</v>
+        <v>0.04553864693880794</v>
       </c>
       <c r="F15">
-        <v>10.45959397424747</v>
+        <v>0.4999004087700385</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1766408648034457</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002158005352604242</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>1.379687143196861</v>
+        <v>0.320473488808922</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9727446469418126</v>
+        <v>1.326403884554026</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03181574158034373</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.155592590502863</v>
+      </c>
+      <c r="P15">
+        <v>0.8614815393407937</v>
+      </c>
+      <c r="Q15">
+        <v>1.389981108502468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.262323240379345</v>
+        <v>1.171185361994418</v>
       </c>
       <c r="C16">
-        <v>0.1537153431465867</v>
+        <v>0.2543901845297682</v>
       </c>
       <c r="D16">
-        <v>0.5613498638366536</v>
+        <v>0.134604144270682</v>
       </c>
       <c r="E16">
-        <v>0.5213023953751659</v>
+        <v>0.0445138379318184</v>
       </c>
       <c r="F16">
-        <v>9.811252875478914</v>
+        <v>0.4891575689606356</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1643973091081534</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002643058902880746</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>1.275255231848661</v>
+        <v>0.3241517269658019</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9015179747151123</v>
+        <v>1.243931634404191</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03211542166415704</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1471300081991131</v>
+      </c>
+      <c r="P16">
+        <v>0.8783926723790962</v>
+      </c>
+      <c r="Q16">
+        <v>1.384932593384747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.201738519692242</v>
+        <v>1.142325983137113</v>
       </c>
       <c r="C17">
-        <v>0.145755233659699</v>
+        <v>0.2395890082729721</v>
       </c>
       <c r="D17">
-        <v>0.5411140742363614</v>
+        <v>0.1270832683503897</v>
       </c>
       <c r="E17">
-        <v>0.4971570940464147</v>
+        <v>0.04193704988179814</v>
       </c>
       <c r="F17">
-        <v>9.419268356177639</v>
+        <v>0.4981796694443119</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.126899105334445</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002963472419708069</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>1.212553554054949</v>
+        <v>0.3368195184778138</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8586625924956053</v>
+        <v>1.194645378347417</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04076000424977977</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1550177325846605</v>
+      </c>
+      <c r="P17">
+        <v>0.8842026390410638</v>
+      </c>
+      <c r="Q17">
+        <v>1.429243574262017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.167307695879828</v>
+        <v>1.153648257148376</v>
       </c>
       <c r="C18">
-        <v>0.1412497403036213</v>
+        <v>0.221266801059258</v>
       </c>
       <c r="D18">
-        <v>0.5295735222920825</v>
+        <v>0.1187883082497763</v>
       </c>
       <c r="E18">
-        <v>0.4834154634567867</v>
+        <v>0.04107780193226515</v>
       </c>
       <c r="F18">
-        <v>9.195738345148101</v>
+        <v>0.5264036204385079</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07409616937754748</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002815557641491218</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>1.176947726178895</v>
+        <v>0.3603137096120541</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8342953225026193</v>
+        <v>1.168228210507863</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06534866565899122</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1792996019692268</v>
+      </c>
+      <c r="P18">
+        <v>0.8835976361827171</v>
+      </c>
+      <c r="Q18">
+        <v>1.525822780286191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.155718050266898</v>
+        <v>1.192540700739585</v>
       </c>
       <c r="C19">
-        <v>0.139736125188108</v>
+        <v>0.2042543368441159</v>
       </c>
       <c r="D19">
-        <v>0.5256820822579584</v>
+        <v>0.1111377160367155</v>
       </c>
       <c r="E19">
-        <v>0.4787866226097606</v>
+        <v>0.04660213684362091</v>
       </c>
       <c r="F19">
-        <v>9.120369646937576</v>
+        <v>0.5665311087646359</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02854381321719757</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002843607683336025</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>1.164967126608047</v>
+        <v>0.390675132786253</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8260910319098542</v>
+        <v>1.161858895214067</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1129770485115884</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2167837240777573</v>
+      </c>
+      <c r="P19">
+        <v>0.8822142163697055</v>
+      </c>
+      <c r="Q19">
+        <v>1.654432414365999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.208144003971142</v>
+        <v>1.315373579171109</v>
       </c>
       <c r="C20">
-        <v>0.1465948909782782</v>
+        <v>0.1881465726729203</v>
       </c>
       <c r="D20">
-        <v>0.5432577856742569</v>
+        <v>0.1046549278878572</v>
       </c>
       <c r="E20">
-        <v>0.4997119782425088</v>
+        <v>0.06887767232182718</v>
       </c>
       <c r="F20">
-        <v>9.460792119384934</v>
+        <v>0.6426761545595383</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001296645906486038</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002399234192610677</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>1.219179876161604</v>
+        <v>0.4419577390516665</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8631948579837356</v>
+        <v>1.212273315180056</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2215816092733007</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2908176081727447</v>
+      </c>
+      <c r="P20">
+        <v>0.8756343047900326</v>
+      </c>
+      <c r="Q20">
+        <v>1.880181341388436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.389524911866516</v>
+        <v>1.48658912438529</v>
       </c>
       <c r="C21">
-        <v>0.1705634718642415</v>
+        <v>0.2009478751366913</v>
       </c>
       <c r="D21">
-        <v>0.603560356529016</v>
+        <v>0.1140201910858707</v>
       </c>
       <c r="E21">
-        <v>0.5718631267119534</v>
+        <v>0.07565207265816909</v>
       </c>
       <c r="F21">
-        <v>10.62892050942509</v>
+        <v>0.6878021153549412</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0003985221165823116</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001862798027604917</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>1.407108086465087</v>
+        <v>0.4537228710920758</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9914167116877195</v>
+        <v>1.363778832476044</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2552056798874816</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3318677601846503</v>
+      </c>
+      <c r="P21">
+        <v>0.8401673486900605</v>
+      </c>
+      <c r="Q21">
+        <v>1.969071093915773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.512621140427484</v>
+        <v>1.597535907308583</v>
       </c>
       <c r="C22">
-        <v>0.187044981502666</v>
+        <v>0.2095855192025198</v>
       </c>
       <c r="D22">
-        <v>0.6440811222647653</v>
+        <v>0.1203711955005247</v>
       </c>
       <c r="E22">
-        <v>0.6206340780183268</v>
+        <v>0.07880961168571154</v>
       </c>
       <c r="F22">
-        <v>11.41367743482516</v>
+        <v>0.7163194782449764</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0001281009799976029</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001433559155472608</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>1.534973917373122</v>
+        <v>0.4605777883580302</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.07832768101337</v>
+        <v>1.462776300760396</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2711253395137447</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.355746113384626</v>
+      </c>
+      <c r="P22">
+        <v>0.8173690729935159</v>
+      </c>
+      <c r="Q22">
+        <v>2.023786327184325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.446460564261173</v>
+        <v>1.540956119946856</v>
       </c>
       <c r="C23">
-        <v>0.1781648321562841</v>
+        <v>0.2042959178521357</v>
       </c>
       <c r="D23">
-        <v>0.6223406198618875</v>
+        <v>0.1167733953814789</v>
       </c>
       <c r="E23">
-        <v>0.5944394711528389</v>
+        <v>0.07725648218935177</v>
       </c>
       <c r="F23">
-        <v>10.99266817814072</v>
+        <v>0.7025761152652379</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.000251402292652525</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001329557121524161</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>1.466216849039171</v>
+        <v>0.458239701439517</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.031625128985219</v>
+        <v>1.410053299824625</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2623856326298153</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3432840630719127</v>
+      </c>
+      <c r="P23">
+        <v>0.8297415241770381</v>
+      </c>
+      <c r="Q23">
+        <v>1.999365216995614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.205246847076069</v>
+        <v>1.322236102657996</v>
       </c>
       <c r="C24">
-        <v>0.1462150628709367</v>
+        <v>0.1855157295232601</v>
       </c>
       <c r="D24">
-        <v>0.5422883256417492</v>
+        <v>0.1034966780223527</v>
       </c>
       <c r="E24">
-        <v>0.4985564828635276</v>
+        <v>0.07114293797258497</v>
       </c>
       <c r="F24">
-        <v>9.442013578426554</v>
+        <v>0.649315681171089</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.00112409974078409</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001882231371220122</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>1.216182748621122</v>
+        <v>0.4477656380633839</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8611449833485381</v>
+        <v>1.210422044635749</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2297683077470651</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2956518057002242</v>
+      </c>
+      <c r="P24">
+        <v>0.8774501966723647</v>
+      </c>
+      <c r="Q24">
+        <v>1.902436715313399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9606160564560469</v>
+        <v>1.085967533970546</v>
       </c>
       <c r="C25">
-        <v>0.1144755486232896</v>
+        <v>0.1654751864737705</v>
       </c>
       <c r="D25">
-        <v>0.4596104250256445</v>
+        <v>0.08917026753945123</v>
       </c>
       <c r="E25">
-        <v>0.4005906089499121</v>
+        <v>0.06450093745248786</v>
       </c>
       <c r="F25">
-        <v>7.841429025357826</v>
+        <v>0.5944218153366734</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002857991940857674</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003397309063416287</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>0.9636247335802182</v>
+        <v>0.4376472685012267</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6877959755430396</v>
+        <v>0.9954099552634545</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1947291343969653</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.244305205852072</v>
+      </c>
+      <c r="P25">
+        <v>0.9314573802998232</v>
+      </c>
+      <c r="Q25">
+        <v>1.805112977234785</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9177731454457216</v>
+        <v>0.8748893056623501</v>
       </c>
       <c r="C2">
-        <v>0.1492507200653037</v>
+        <v>0.1469134975610871</v>
       </c>
       <c r="D2">
-        <v>0.07810887162689539</v>
+        <v>0.0800456239828975</v>
       </c>
       <c r="E2">
-        <v>0.0598758276721032</v>
+        <v>0.05747233261635643</v>
       </c>
       <c r="F2">
-        <v>0.559684329321513</v>
+        <v>0.5210407036861326</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.004726976369519242</v>
+        <v>0.003763715590644257</v>
       </c>
       <c r="I2">
-        <v>0.004459227806176358</v>
+        <v>0.003192352949933586</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.4344388642123285</v>
+        <v>0.3907977879484825</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.182687505680736</v>
       </c>
       <c r="M2">
-        <v>0.8374037737868036</v>
+        <v>0.1150504250618045</v>
       </c>
       <c r="N2">
-        <v>0.1684398082602598</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2071531332559218</v>
+        <v>0.8398017144332925</v>
       </c>
       <c r="P2">
-        <v>0.9742206376802336</v>
+        <v>0.1778268594653198</v>
       </c>
       <c r="Q2">
-        <v>1.75113489504605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2023370707954868</v>
+      </c>
+      <c r="R2">
+        <v>0.9363755392547013</v>
+      </c>
+      <c r="S2">
+        <v>1.61354956964972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7997746148772649</v>
+        <v>0.7653119885002297</v>
       </c>
       <c r="C3">
-        <v>0.139184020299723</v>
+        <v>0.1338467624317161</v>
       </c>
       <c r="D3">
-        <v>0.07087126792311693</v>
+        <v>0.07200141620871392</v>
       </c>
       <c r="E3">
-        <v>0.05651355216983767</v>
+        <v>0.05453285729289803</v>
       </c>
       <c r="F3">
-        <v>0.5350672914729984</v>
+        <v>0.5003991767670115</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006354198922114196</v>
+        <v>0.005136037648810154</v>
       </c>
       <c r="I3">
-        <v>0.005977372833199546</v>
+        <v>0.00431100780306215</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.430887498845518</v>
+        <v>0.3900839400480969</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1865753158743679</v>
       </c>
       <c r="M3">
-        <v>0.7300508179719429</v>
+        <v>0.1121491086905202</v>
       </c>
       <c r="N3">
-        <v>0.1509738067845845</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1815488233001368</v>
+        <v>0.7327118096251866</v>
       </c>
       <c r="P3">
-        <v>1.003944359796143</v>
+        <v>0.1597624417365964</v>
       </c>
       <c r="Q3">
-        <v>1.710716483718699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.177621897470015</v>
+      </c>
+      <c r="R3">
+        <v>0.9643383222261175</v>
+      </c>
+      <c r="S3">
+        <v>1.58508029022201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7270048820590205</v>
+        <v>0.6975561263676013</v>
       </c>
       <c r="C4">
-        <v>0.1330242123364513</v>
+        <v>0.1259151339873981</v>
       </c>
       <c r="D4">
-        <v>0.06642005472342305</v>
+        <v>0.06706820246058243</v>
       </c>
       <c r="E4">
-        <v>0.05442007302293916</v>
+        <v>0.05269573822850937</v>
       </c>
       <c r="F4">
-        <v>0.5203824126665992</v>
+        <v>0.488066351610648</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.007516971524599125</v>
+        <v>0.006122342226231814</v>
       </c>
       <c r="I4">
-        <v>0.007103998890101604</v>
+        <v>0.005165623150265031</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.4288954796846234</v>
+        <v>0.3897646516237856</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1890060419323909</v>
       </c>
       <c r="M4">
-        <v>0.6640461252710281</v>
+        <v>0.1109205984377937</v>
       </c>
       <c r="N4">
-        <v>0.1402632373192034</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1657927831733552</v>
+        <v>0.6668378364681473</v>
       </c>
       <c r="P4">
-        <v>1.022758233135329</v>
+        <v>0.1487003245861445</v>
       </c>
       <c r="Q4">
-        <v>1.687136565710958</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1623938455501417</v>
+      </c>
+      <c r="R4">
+        <v>0.9821019748391473</v>
+      </c>
+      <c r="S4">
+        <v>1.568565680103845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6966298116919063</v>
+        <v>0.6691996056485436</v>
       </c>
       <c r="C5">
-        <v>0.1306742696121148</v>
+        <v>0.1228853334824223</v>
       </c>
       <c r="D5">
-        <v>0.0646531688543206</v>
+        <v>0.06511005523316271</v>
       </c>
       <c r="E5">
-        <v>0.05352555928064717</v>
+        <v>0.05190614949861327</v>
       </c>
       <c r="F5">
-        <v>0.5141105139359823</v>
+        <v>0.4827438556771426</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.008034032993711637</v>
+        <v>0.006562266520644705</v>
       </c>
       <c r="I5">
-        <v>0.007691320747607477</v>
+        <v>0.005647400187641871</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.4277797758955231</v>
+        <v>0.3893364051590993</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1898449339402468</v>
       </c>
       <c r="M5">
-        <v>0.6370936367789284</v>
+        <v>0.1104748520571022</v>
       </c>
       <c r="N5">
-        <v>0.1359583064070407</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1592935814817906</v>
+        <v>0.6399314304258183</v>
       </c>
       <c r="P5">
-        <v>1.030441254833206</v>
+        <v>0.1442567627576992</v>
       </c>
       <c r="Q5">
-        <v>1.676553485002216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1561061996266417</v>
+      </c>
+      <c r="R5">
+        <v>0.9894011154862534</v>
+      </c>
+      <c r="S5">
+        <v>1.560848935673775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6907986142205971</v>
+        <v>0.6637184742831721</v>
       </c>
       <c r="C6">
-        <v>0.1304774087106679</v>
+        <v>0.1226073937726824</v>
       </c>
       <c r="D6">
-        <v>0.06442013316058137</v>
+        <v>0.06484774200047383</v>
       </c>
       <c r="E6">
-        <v>0.05333517764184137</v>
+        <v>0.05173467223357697</v>
       </c>
       <c r="F6">
-        <v>0.5125966999863891</v>
+        <v>0.4814021738765319</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.008126544904029198</v>
+        <v>0.006641218052494763</v>
       </c>
       <c r="I6">
-        <v>0.00789788841545036</v>
+        <v>0.005851983894405777</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.427169580315411</v>
+        <v>0.3888677007988655</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1897869782547232</v>
       </c>
       <c r="M6">
-        <v>0.632581888275638</v>
+        <v>0.1103063856693289</v>
       </c>
       <c r="N6">
-        <v>0.1353138701354339</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1581292584895451</v>
+        <v>0.6354268409917836</v>
       </c>
       <c r="P6">
-        <v>1.031577010896929</v>
+        <v>0.1435902561688138</v>
       </c>
       <c r="Q6">
-        <v>1.673256608901852</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.154977676670768</v>
+      </c>
+      <c r="R6">
+        <v>0.9905183889326441</v>
+      </c>
+      <c r="S6">
+        <v>1.558090732151371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7244511872187047</v>
+        <v>0.6950790172341499</v>
       </c>
       <c r="C7">
-        <v>0.1335219254964954</v>
+        <v>0.1264912197959163</v>
       </c>
       <c r="D7">
-        <v>0.06656220519993639</v>
+        <v>0.0672142536631668</v>
       </c>
       <c r="E7">
-        <v>0.05429513728688207</v>
+        <v>0.05257660687677479</v>
       </c>
       <c r="F7">
-        <v>0.5189907187125158</v>
+        <v>0.4867325644379292</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.007534814387419625</v>
+        <v>0.006137947375299879</v>
       </c>
       <c r="I7">
-        <v>0.007385638232527469</v>
+        <v>0.005486931968108344</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.4277134791348622</v>
+        <v>0.3886728020777994</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1884924962672478</v>
       </c>
       <c r="M7">
-        <v>0.6635875523419514</v>
+        <v>0.1106209379322145</v>
       </c>
       <c r="N7">
-        <v>0.1403977891605308</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.165473577408271</v>
+        <v>0.6663797743471065</v>
       </c>
       <c r="P7">
-        <v>1.022469027955817</v>
+        <v>0.1488350649901591</v>
       </c>
       <c r="Q7">
-        <v>1.682742642237073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1620801825477258</v>
+      </c>
+      <c r="R7">
+        <v>0.9819351455342105</v>
+      </c>
+      <c r="S7">
+        <v>1.564400819977237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8742861314173354</v>
+        <v>0.8344135486950108</v>
       </c>
       <c r="C8">
-        <v>0.1464854596542082</v>
+        <v>0.1432292652134848</v>
       </c>
       <c r="D8">
-        <v>0.07583739125538358</v>
+        <v>0.07750289542108391</v>
       </c>
       <c r="E8">
-        <v>0.05857364648220553</v>
+        <v>0.05632331167658577</v>
       </c>
       <c r="F8">
-        <v>0.5493770557168034</v>
+        <v>0.5121902444270106</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.005264683278931814</v>
+        <v>0.004216397806326322</v>
       </c>
       <c r="I8">
-        <v>0.00527038377538247</v>
+        <v>0.003923102378208476</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.4316386784301649</v>
+        <v>0.3891111109257359</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.183389928077812</v>
       </c>
       <c r="M8">
-        <v>0.8002748720461739</v>
+        <v>0.1134978357650098</v>
       </c>
       <c r="N8">
-        <v>0.1626719862696788</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1980223126749436</v>
+        <v>0.8027705017628364</v>
       </c>
       <c r="P8">
-        <v>0.9838895288451264</v>
+        <v>0.1718528597109952</v>
       </c>
       <c r="Q8">
-        <v>1.731330860123691</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1935207446411873</v>
+      </c>
+      <c r="R8">
+        <v>0.9456209331154612</v>
+      </c>
+      <c r="S8">
+        <v>1.598206753344044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.169559985548574</v>
+        <v>1.107707618643047</v>
       </c>
       <c r="C9">
-        <v>0.1712120677686713</v>
+        <v>0.1757576424312646</v>
       </c>
       <c r="D9">
-        <v>0.09368970068521776</v>
+        <v>0.09743599588605178</v>
       </c>
       <c r="E9">
-        <v>0.0669464632376755</v>
+        <v>0.06361670273654418</v>
       </c>
       <c r="F9">
-        <v>0.6149327768101926</v>
+        <v>0.5672594959127153</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.00216495845772835</v>
+        <v>0.001635521989113098</v>
       </c>
       <c r="I9">
-        <v>0.002325851297054982</v>
+        <v>0.001769210644435582</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.4429690310796204</v>
+        <v>0.3928730270846863</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1745624289709227</v>
       </c>
       <c r="M9">
-        <v>1.068001568794188</v>
+        <v>0.1241578853524423</v>
       </c>
       <c r="N9">
-        <v>0.2061611973123973</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.262026801660685</v>
+        <v>1.06964136888584</v>
       </c>
       <c r="P9">
-        <v>0.9134403508832697</v>
+        <v>0.2169182902880209</v>
       </c>
       <c r="Q9">
-        <v>1.844545341144311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2551966275606681</v>
+      </c>
+      <c r="R9">
+        <v>0.8796009328548866</v>
+      </c>
+      <c r="S9">
+        <v>1.67982379518179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.37688851418136</v>
+        <v>1.299189210358236</v>
       </c>
       <c r="C10">
-        <v>0.1917189012962979</v>
+        <v>0.2025518301734337</v>
       </c>
       <c r="D10">
-        <v>0.1077775664150664</v>
+        <v>0.1130946565213691</v>
       </c>
       <c r="E10">
-        <v>0.0701766732948208</v>
+        <v>0.06624700554024621</v>
       </c>
       <c r="F10">
-        <v>0.6586462776025215</v>
+        <v>0.6036329524574953</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.001074386822383921</v>
+        <v>0.0007995016529416255</v>
       </c>
       <c r="I10">
-        <v>0.001412059078367278</v>
+        <v>0.001298283498003094</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.4467877352851808</v>
+        <v>0.3917428040585058</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1666779210290912</v>
       </c>
       <c r="M10">
-        <v>1.264132766284433</v>
+        <v>0.1328799096637638</v>
       </c>
       <c r="N10">
-        <v>0.2269157845157252</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3024154991431729</v>
+        <v>1.264982306226557</v>
       </c>
       <c r="P10">
-        <v>0.8635629873704076</v>
+        <v>0.238567271622955</v>
       </c>
       <c r="Q10">
-        <v>1.912390823823927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2939556259267704</v>
+      </c>
+      <c r="R10">
+        <v>0.8341268324434203</v>
+      </c>
+      <c r="S10">
+        <v>1.726038528972282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.404536954690627</v>
+        <v>1.329257602474456</v>
       </c>
       <c r="C11">
-        <v>0.2191021126857038</v>
+        <v>0.2337244685142821</v>
       </c>
       <c r="D11">
-        <v>0.1224832437364682</v>
+        <v>0.1282427268797193</v>
       </c>
       <c r="E11">
-        <v>0.05276151088115633</v>
+        <v>0.05030642381781902</v>
       </c>
       <c r="F11">
-        <v>0.6224803969351953</v>
+        <v>0.5710962904139123</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01970695400611433</v>
+        <v>0.01943342614299581</v>
       </c>
       <c r="I11">
-        <v>0.001770013804325288</v>
+        <v>0.001848535251989247</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.4053057551877686</v>
+        <v>0.3558842965751161</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1510781753244324</v>
       </c>
       <c r="M11">
-        <v>1.348454284272833</v>
+        <v>0.1226954586839817</v>
       </c>
       <c r="N11">
-        <v>0.148732128204216</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2663359888908232</v>
+        <v>1.349312743145077</v>
       </c>
       <c r="P11">
-        <v>0.8378831329832774</v>
+        <v>0.157999907418187</v>
       </c>
       <c r="Q11">
-        <v>1.764828356537464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2586731047658084</v>
+      </c>
+      <c r="R11">
+        <v>0.8180722104877951</v>
+      </c>
+      <c r="S11">
+        <v>1.593490050523201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.386814254688062</v>
+        <v>1.316957809445569</v>
       </c>
       <c r="C12">
-        <v>0.2391372457136924</v>
+        <v>0.2550313570437055</v>
       </c>
       <c r="D12">
-        <v>0.1321932966216366</v>
+        <v>0.1379165529354935</v>
       </c>
       <c r="E12">
-        <v>0.04444493425916107</v>
+        <v>0.04322095066154419</v>
       </c>
       <c r="F12">
-        <v>0.5849240308204955</v>
+        <v>0.5379959197205579</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05851735154366366</v>
+        <v>0.05822288324063152</v>
       </c>
       <c r="I12">
-        <v>0.001746485700345524</v>
+        <v>0.001835322750753043</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.3729119474070259</v>
+        <v>0.3288656719756595</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1409842730974677</v>
       </c>
       <c r="M12">
-        <v>1.378291303639941</v>
+        <v>0.1129625655674502</v>
       </c>
       <c r="N12">
-        <v>0.09380660512809413</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.229929454129973</v>
+        <v>1.379340504918815</v>
       </c>
       <c r="P12">
-        <v>0.8329439822966904</v>
+        <v>0.1010355512623207</v>
       </c>
       <c r="Q12">
-        <v>1.635306542498569</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2232363962263619</v>
+      </c>
+      <c r="R12">
+        <v>0.8193141287534296</v>
+      </c>
+      <c r="S12">
+        <v>1.480342022676837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.329859644313217</v>
+        <v>1.268115709163851</v>
       </c>
       <c r="C13">
-        <v>0.2552691418378288</v>
+        <v>0.2706606593323357</v>
       </c>
       <c r="D13">
-        <v>0.1387813913312073</v>
+        <v>0.1441008653480793</v>
       </c>
       <c r="E13">
-        <v>0.04235331304758061</v>
+        <v>0.04220192904518161</v>
       </c>
       <c r="F13">
-        <v>0.5419689562742178</v>
+        <v>0.5004352008909621</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1144939451080944</v>
+        <v>0.1141539869845047</v>
       </c>
       <c r="I13">
-        <v>0.001798602722766773</v>
+        <v>0.001832268688644056</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.3437479637142147</v>
+        <v>0.3052738536324533</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1333848396576194</v>
       </c>
       <c r="M13">
-        <v>1.367461053589722</v>
+        <v>0.1026496927108909</v>
       </c>
       <c r="N13">
-        <v>0.05396392888316015</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.1910325925192531</v>
+        <v>1.368858602270564</v>
       </c>
       <c r="P13">
-        <v>0.8423096920305895</v>
+        <v>0.05935250707557316</v>
       </c>
       <c r="Q13">
-        <v>1.505200006734071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1854728156098844</v>
+      </c>
+      <c r="R13">
+        <v>0.8326718348431967</v>
+      </c>
+      <c r="S13">
+        <v>1.368773979942304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.271857835972554</v>
+        <v>1.216950642609163</v>
       </c>
       <c r="C14">
-        <v>0.2651724723991293</v>
+        <v>0.2793593558662479</v>
       </c>
       <c r="D14">
-        <v>0.1420487315228485</v>
+        <v>0.1469128249054137</v>
       </c>
       <c r="E14">
-        <v>0.04457399970735576</v>
+        <v>0.04505796531363515</v>
       </c>
       <c r="F14">
-        <v>0.5093960708525458</v>
+        <v>0.4720009880476397</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1640392933466615</v>
+        <v>0.1636553307558586</v>
       </c>
       <c r="I14">
-        <v>0.001969214288005006</v>
+        <v>0.001946657709599009</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.3248816118419136</v>
+        <v>0.2903080108540514</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1290043825845242</v>
       </c>
       <c r="M14">
-        <v>1.341445387497089</v>
+        <v>0.09536417126173191</v>
       </c>
       <c r="N14">
-        <v>0.03518299662079194</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1631867302661156</v>
+        <v>1.343151387046134</v>
       </c>
       <c r="P14">
-        <v>0.8558453828056365</v>
+        <v>0.03942867600440714</v>
       </c>
       <c r="Q14">
-        <v>1.413893660461056</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1584666987483345</v>
+      </c>
+      <c r="R14">
+        <v>0.8478699493948341</v>
+      </c>
+      <c r="S14">
+        <v>1.291173764910653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.248731967038225</v>
+        <v>1.196045060880977</v>
       </c>
       <c r="C15">
-        <v>0.2667819768041682</v>
+        <v>0.2803737608477377</v>
       </c>
       <c r="D15">
-        <v>0.1421746268165123</v>
+        <v>0.146859624691416</v>
       </c>
       <c r="E15">
-        <v>0.04553864693880794</v>
+        <v>0.04615450797130993</v>
       </c>
       <c r="F15">
-        <v>0.4999004087700385</v>
+        <v>0.4637233097871629</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1766408648034457</v>
+        <v>0.1762362272708771</v>
       </c>
       <c r="I15">
-        <v>0.002158005352604242</v>
+        <v>0.002127003747571798</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.320473488808922</v>
+        <v>0.286933929677847</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1281953872633963</v>
       </c>
       <c r="M15">
-        <v>1.326403884554026</v>
+        <v>0.09340260080233698</v>
       </c>
       <c r="N15">
-        <v>0.03181574158034373</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.155592590502863</v>
+        <v>1.328215911742546</v>
       </c>
       <c r="P15">
-        <v>0.8614815393407937</v>
+        <v>0.03581283117660838</v>
       </c>
       <c r="Q15">
-        <v>1.389981108502468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1511127389391937</v>
+      </c>
+      <c r="R15">
+        <v>0.8535634175030182</v>
+      </c>
+      <c r="S15">
+        <v>1.271134761603392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.171185361994418</v>
+        <v>1.123487002989549</v>
       </c>
       <c r="C16">
-        <v>0.2543901845297682</v>
+        <v>0.2651622498734554</v>
       </c>
       <c r="D16">
-        <v>0.134604144270682</v>
+        <v>0.1386733183250328</v>
       </c>
       <c r="E16">
-        <v>0.0445138379318184</v>
+        <v>0.04501885498742997</v>
       </c>
       <c r="F16">
-        <v>0.4891575689606356</v>
+        <v>0.4548665128231661</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1643973091081534</v>
+        <v>0.1638827223379309</v>
       </c>
       <c r="I16">
-        <v>0.002643058902880746</v>
+        <v>0.002471757868630853</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.3241517269658019</v>
+        <v>0.2913311840337443</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1313972404208954</v>
       </c>
       <c r="M16">
-        <v>1.243931634404191</v>
+        <v>0.09235146407192651</v>
       </c>
       <c r="N16">
-        <v>0.03211542166415704</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1471300081991131</v>
+        <v>1.246027165402637</v>
       </c>
       <c r="P16">
-        <v>0.8783926723790962</v>
+        <v>0.0362441633467121</v>
       </c>
       <c r="Q16">
-        <v>1.384932593384747</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1430257132819506</v>
+      </c>
+      <c r="R16">
+        <v>0.8673256307669277</v>
+      </c>
+      <c r="S16">
+        <v>1.27088406128162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.142325983137113</v>
+        <v>1.094855884864586</v>
       </c>
       <c r="C17">
-        <v>0.2395890082729721</v>
+        <v>0.2489456224629407</v>
       </c>
       <c r="D17">
-        <v>0.1270832683503897</v>
+        <v>0.1309347891615289</v>
       </c>
       <c r="E17">
-        <v>0.04193704988179814</v>
+        <v>0.04206650203945195</v>
       </c>
       <c r="F17">
-        <v>0.4981796694443119</v>
+        <v>0.4631892815721201</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.126899105334445</v>
+        <v>0.1263212870015167</v>
       </c>
       <c r="I17">
-        <v>0.002963472419708069</v>
+        <v>0.002714651086480835</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.3368195184778138</v>
+        <v>0.3025791224630794</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.136455158246152</v>
       </c>
       <c r="M17">
-        <v>1.194645378347417</v>
+        <v>0.09518577792453975</v>
       </c>
       <c r="N17">
-        <v>0.04076000424977977</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1550177325846605</v>
+        <v>1.19679039575712</v>
       </c>
       <c r="P17">
-        <v>0.8842026390410638</v>
+        <v>0.04554817623746032</v>
       </c>
       <c r="Q17">
-        <v>1.429243574262017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1507813077970859</v>
+      </c>
+      <c r="R17">
+        <v>0.8700312548008959</v>
+      </c>
+      <c r="S17">
+        <v>1.311837057101044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.153648257148376</v>
+        <v>1.102347911097723</v>
       </c>
       <c r="C18">
-        <v>0.221266801059258</v>
+        <v>0.2299724377816119</v>
       </c>
       <c r="D18">
-        <v>0.1187883082497763</v>
+        <v>0.1227033983836634</v>
       </c>
       <c r="E18">
-        <v>0.04107780193226515</v>
+        <v>0.04048836202360862</v>
       </c>
       <c r="F18">
-        <v>0.5264036204385079</v>
+        <v>0.4883285516733835</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07409616937754748</v>
+        <v>0.07350921296661284</v>
       </c>
       <c r="I18">
-        <v>0.002815557641491218</v>
+        <v>0.002497088480574838</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.3603137096120541</v>
+        <v>0.3224468213193106</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.144372557778242</v>
       </c>
       <c r="M18">
-        <v>1.168228210507863</v>
+        <v>0.1019543961319194</v>
       </c>
       <c r="N18">
-        <v>0.06534866565899122</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1792996019692268</v>
+        <v>1.170239898887075</v>
       </c>
       <c r="P18">
-        <v>0.8835976361827171</v>
+        <v>0.07141649596797706</v>
       </c>
       <c r="Q18">
-        <v>1.525822780286191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1744532997474231</v>
+      </c>
+      <c r="R18">
+        <v>0.8655160144864773</v>
+      </c>
+      <c r="S18">
+        <v>1.397221725741801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.192540700739585</v>
+        <v>1.134476669686194</v>
       </c>
       <c r="C19">
-        <v>0.2042543368441159</v>
+        <v>0.2128310843370116</v>
       </c>
       <c r="D19">
-        <v>0.1111377160367155</v>
+        <v>0.1153074175566076</v>
       </c>
       <c r="E19">
-        <v>0.04660213684362091</v>
+        <v>0.04494855511963625</v>
       </c>
       <c r="F19">
-        <v>0.5665311087646359</v>
+        <v>0.523614870142957</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02854381321719757</v>
+        <v>0.02800936840197465</v>
       </c>
       <c r="I19">
-        <v>0.002843607683336025</v>
+        <v>0.00258198495180384</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.390675132786253</v>
+        <v>0.3475324098049732</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1538984605928597</v>
       </c>
       <c r="M19">
-        <v>1.161858895214067</v>
+        <v>0.1112536598686766</v>
       </c>
       <c r="N19">
-        <v>0.1129770485115884</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2167837240777573</v>
+        <v>1.16360042369277</v>
       </c>
       <c r="P19">
-        <v>0.8822142163697055</v>
+        <v>0.1209071166028579</v>
       </c>
       <c r="Q19">
-        <v>1.654432414365999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2109318983019755</v>
+      </c>
+      <c r="R19">
+        <v>0.8594657900381613</v>
+      </c>
+      <c r="S19">
+        <v>1.508808216365665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.315373579171109</v>
+        <v>1.242156733878943</v>
       </c>
       <c r="C20">
-        <v>0.1881465726729203</v>
+        <v>0.1976722448857089</v>
       </c>
       <c r="D20">
-        <v>0.1046549278878572</v>
+        <v>0.1095805961699057</v>
       </c>
       <c r="E20">
-        <v>0.06887767232182718</v>
+        <v>0.06513293667734743</v>
       </c>
       <c r="F20">
-        <v>0.6426761545595383</v>
+        <v>0.5898478243540879</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.001296645906486038</v>
+        <v>0.000959795180152323</v>
       </c>
       <c r="I20">
-        <v>0.002399234192610677</v>
+        <v>0.002332971521429528</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.4419577390516665</v>
+        <v>0.3886153618329189</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1674781191823094</v>
       </c>
       <c r="M20">
-        <v>1.212273315180056</v>
+        <v>0.1291149147061219</v>
       </c>
       <c r="N20">
-        <v>0.2215816092733007</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2908176081727447</v>
+        <v>1.213351131292114</v>
       </c>
       <c r="P20">
-        <v>0.8756343047900326</v>
+        <v>0.2329927318357363</v>
       </c>
       <c r="Q20">
-        <v>1.880181341388436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2828112668651741</v>
+      </c>
+      <c r="R20">
+        <v>0.845603410952279</v>
+      </c>
+      <c r="S20">
+        <v>1.700531670295049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.48658912438529</v>
+        <v>1.399189896136875</v>
       </c>
       <c r="C21">
-        <v>0.2009478751366913</v>
+        <v>0.2152198468479156</v>
       </c>
       <c r="D21">
-        <v>0.1140201910858707</v>
+        <v>0.1202159483796805</v>
       </c>
       <c r="E21">
-        <v>0.07565207265816909</v>
+        <v>0.07111760734969685</v>
       </c>
       <c r="F21">
-        <v>0.6878021153549412</v>
+        <v>0.6279056820300468</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0003985221165823116</v>
+        <v>0.0002393969455023459</v>
       </c>
       <c r="I21">
-        <v>0.001862798027604917</v>
+        <v>0.002065729746040468</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.4537228710920758</v>
+        <v>0.3950054528947078</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1641222376680815</v>
       </c>
       <c r="M21">
-        <v>1.363778832476044</v>
+        <v>0.1393566178169685</v>
       </c>
       <c r="N21">
-        <v>0.2552056798874816</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3318677601846503</v>
+        <v>1.364097755215738</v>
       </c>
       <c r="P21">
-        <v>0.8401673486900605</v>
+        <v>0.2678404054309311</v>
       </c>
       <c r="Q21">
-        <v>1.969071093915773</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3222955249225237</v>
+      </c>
+      <c r="R21">
+        <v>0.8121086217060842</v>
+      </c>
+      <c r="S21">
+        <v>1.767771873382827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.597535907308583</v>
+        <v>1.501152658870495</v>
       </c>
       <c r="C22">
-        <v>0.2095855192025198</v>
+        <v>0.2269246999700982</v>
       </c>
       <c r="D22">
-        <v>0.1203711955005247</v>
+        <v>0.1273823738957987</v>
       </c>
       <c r="E22">
-        <v>0.07880961168571154</v>
+        <v>0.07385026959273233</v>
       </c>
       <c r="F22">
-        <v>0.7163194782449764</v>
+        <v>0.6520256871843912</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0001281009799976029</v>
+        <v>5.399609072176403E-05</v>
       </c>
       <c r="I22">
-        <v>0.001433559155472608</v>
+        <v>0.001709457765385558</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.4605777883580302</v>
+        <v>0.3985803063472808</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1616544041490364</v>
       </c>
       <c r="M22">
-        <v>1.462776300760396</v>
+        <v>0.1463097960260846</v>
       </c>
       <c r="N22">
-        <v>0.2711253395137447</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.355746113384626</v>
+        <v>1.462569050215649</v>
       </c>
       <c r="P22">
-        <v>0.8173690729935159</v>
+        <v>0.284396129491256</v>
       </c>
       <c r="Q22">
-        <v>2.023786327184325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3452134505063071</v>
+      </c>
+      <c r="R22">
+        <v>0.7908367031344561</v>
+      </c>
+      <c r="S22">
+        <v>1.809131433970862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.540956119946856</v>
+        <v>1.449293953470431</v>
       </c>
       <c r="C23">
-        <v>0.2042959178521357</v>
+        <v>0.2198415940886633</v>
       </c>
       <c r="D23">
-        <v>0.1167733953814789</v>
+        <v>0.1233372783429161</v>
       </c>
       <c r="E23">
-        <v>0.07725648218935177</v>
+        <v>0.07251621326915902</v>
       </c>
       <c r="F23">
-        <v>0.7025761152652379</v>
+        <v>0.6405599336699552</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.000251402292652525</v>
+        <v>0.0001347988678335188</v>
       </c>
       <c r="I23">
-        <v>0.001329557121524161</v>
+        <v>0.00150914398176738</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.458239701439517</v>
+        <v>0.397860236154731</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1633744572428348</v>
       </c>
       <c r="M23">
-        <v>1.410053299824625</v>
+        <v>0.1430517518044674</v>
       </c>
       <c r="N23">
-        <v>0.2623856326298153</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3432840630719127</v>
+        <v>1.410130356262641</v>
       </c>
       <c r="P23">
-        <v>0.8297415241770381</v>
+        <v>0.2753113722256586</v>
       </c>
       <c r="Q23">
-        <v>1.999365216995614</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.333260910683677</v>
+      </c>
+      <c r="R23">
+        <v>0.8021735356502511</v>
+      </c>
+      <c r="S23">
+        <v>1.791536138102288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.322236102657996</v>
+        <v>1.248248091617626</v>
       </c>
       <c r="C24">
-        <v>0.1855157295232601</v>
+        <v>0.1946727452898642</v>
       </c>
       <c r="D24">
-        <v>0.1034966780223527</v>
+        <v>0.1084102966077864</v>
       </c>
       <c r="E24">
-        <v>0.07114293797258497</v>
+        <v>0.06723690768052215</v>
       </c>
       <c r="F24">
-        <v>0.649315681171089</v>
+        <v>0.5958524317133467</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.00112409974078409</v>
+        <v>0.0007963223398058661</v>
       </c>
       <c r="I24">
-        <v>0.001882231371220122</v>
+        <v>0.001721342000423398</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.4477656380633839</v>
+        <v>0.3935921010398609</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1693838718467333</v>
       </c>
       <c r="M24">
-        <v>1.210422044635749</v>
+        <v>0.130939251301438</v>
       </c>
       <c r="N24">
-        <v>0.2297683077470651</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2956518057002242</v>
+        <v>1.211472605666302</v>
       </c>
       <c r="P24">
-        <v>0.8774501966723647</v>
+        <v>0.2414174638869611</v>
       </c>
       <c r="Q24">
-        <v>1.902436715313399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2875218815906564</v>
+      </c>
+      <c r="R24">
+        <v>0.8463718631532426</v>
+      </c>
+      <c r="S24">
+        <v>1.720392968844408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.085967533970546</v>
+        <v>1.030322126043814</v>
       </c>
       <c r="C25">
-        <v>0.1654751864737705</v>
+        <v>0.1680445237201269</v>
       </c>
       <c r="D25">
-        <v>0.08917026753945123</v>
+        <v>0.09235670799249363</v>
       </c>
       <c r="E25">
-        <v>0.06450093745248786</v>
+        <v>0.06147686703363497</v>
       </c>
       <c r="F25">
-        <v>0.5944218153366734</v>
+        <v>0.5497708884474619</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.002857991940857674</v>
+        <v>0.002205712301509677</v>
       </c>
       <c r="I25">
-        <v>0.003397309063416287</v>
+        <v>0.002732510004131328</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.4376472685012267</v>
+        <v>0.3898467044869243</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1761558954955014</v>
       </c>
       <c r="M25">
-        <v>0.9954099552634545</v>
+        <v>0.120126706514128</v>
       </c>
       <c r="N25">
-        <v>0.1947291343969653</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.244305205852072</v>
+        <v>0.997315950113375</v>
       </c>
       <c r="P25">
-        <v>0.9314573802998232</v>
+        <v>0.2050528014061186</v>
       </c>
       <c r="Q25">
-        <v>1.805112977234785</v>
+        <v>0.2381286615756544</v>
+      </c>
+      <c r="R25">
+        <v>0.8966846225595742</v>
+      </c>
+      <c r="S25">
+        <v>1.649624530870284</v>
       </c>
     </row>
   </sheetData>
